--- a/industry/04_CHL_modeled.xlsx
+++ b/industry/04_CHL_modeled.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f4c2767bca65b51/Documents/GitHub/python_regression/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\python_regression\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4DBAB719-48AE-487F-A7D7-8EF7DD8264C4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2D493D90-50A9-46D5-80B5-1D445B5FBB02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{2D493D90-50A9-46D5-80B5-1D445B5FBB02}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="1" r:id="rId1"/>
+    <sheet name="Python" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -93,10 +94,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,10 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,6 +153,3600 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Existing!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lnSteel_pc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Existing!$G$2:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>8.8144832569215765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8456202975994618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.720941604815339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6661516657969031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7263813569116113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7784980672205499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8162089550218479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8632144782679188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9167167815754773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9997062689300673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1563860811546132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2154284764088725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3055118524341065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3539316859670425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3881381827214305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4591902978796352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5110443632370778</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5691974162865883</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5985531772819517</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5817416461539633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.6213794768354592</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.6420224386160989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6611603898584058</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6899904257673928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7486530138211211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7937209732333592</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.8443818441074722</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.8817852255727736</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9062160496558498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.8804170922077965</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9275169873546147</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.9774601616963778</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.020168999575228</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.051022364969214</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.059925825103523</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.074293098216062</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.078630749173296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Existing!$H$2:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>4.2817782697782674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1557109274841633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3664251107593333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6747424557666166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9653138584757861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8518339732039264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9384233611812043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1796204434333051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3891938587515806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.354157658212829</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2517909896446469</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4313580593567163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6571215916201911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7514592956848469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6998285447039008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7682834691437792</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0033897216361209</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0622461064035562</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0020677643736624</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7467443624443231</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8639042242376318</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9937678176365825</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9787909230456826</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.976297156515364</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.126334072100688</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.1698250572557676</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.1342725260325865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1219811364098025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1949621880223766</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.757596163493627</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0821815112964259</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2123495241096061</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2968720707335066</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.180684637409871</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1479538366745352</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.1984649944539711</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.176758366682118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2623-4D33-B7B5-B3C38670A4FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1646719072"/>
+        <c:axId val="1655205344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1646719072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655205344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1655205344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646719072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Existing!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RESULT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Existing!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Existing!$Q$3:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>64.658687962087996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.106060078500128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.56725569004761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.7028362178376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.310777773170422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.259795575248297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.923455378098225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.173408725659762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.241201262641653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.870251572600964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.829249656977723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.5630557151606</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108.78109364700188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.60760796081668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.51933853779569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.23541118069431</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.42908802042061</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142.88598277730387</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133.44177717323959</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139.83724173516899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>139.65637627948354</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139.01627030950098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141.62273948285409</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>152.79543345272538</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159.82449080484869</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>169.54567875285485</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>175.7245423424437</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>177.48701462203064</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>162.23818879596593</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>173.44602094321692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>182.17386233703689</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>189.80119466372943</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>193.53109420539377</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>190.28654313808434</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>188.60530464129315</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>182.88091007725623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90BB-4464-982F-C093944975D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1657312160"/>
+        <c:axId val="1361030544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1657312160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361030544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1361030544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657312160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Python!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RESULT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Python!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Python!$Q$2:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="1">
+                  <c:v>60.740948753237191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.364625859661714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.037909551447676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.325062415253285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.695964853935706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.045263474147056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.228516879528698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.987437690425573</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.541196931391625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.614953008377739</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.743290001958442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.487168735911069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.941518986736597</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.89752712501922</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109.96417703492891</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.44916908239719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128.4887134550743</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133.30138569115462</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129.78104074103004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126.89283453826387</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132.36079483081178</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138.27205875425304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>141.12561856507159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>148.00495569322325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158.62786253880842</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>166.91785268131241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170.80608152647775</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>173.80349766386115</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>172.86077750553255</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>163.50906998458566</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>182.69233196266825</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>194.59116721000635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>203.24920612514117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>199.67614320083322</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>200.62366263064877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85FF-4A9F-A426-FDAFAC8B2ED5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Python!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steel_pc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Python!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Python!$F$3:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>63.797303686089514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.974760132426553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.438498391295539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.736818689974221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.079326328241784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.337596612056544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.341047882995852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.575437608048489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.801262473059026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.231082917988218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.045478189789705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.33245556287031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>115.75307930562559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.92832304307714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117.71700356718192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148.9170920126914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157.94487921061585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.72036004567744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.20859587451085</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129.52892616130512</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>147.49109744253803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145.29859822057225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>144.9367088607595</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168.39864780267936</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175.88406515142131</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>169.74079294074392</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>167.66721241889516</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>180.36132284976892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.46562481430864</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>161.12516918731242</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>183.52474785751764</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>199.71114962449451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>177.80450094485482</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>172.0790280458726</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180.99420142993864</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>177.107761027359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85FF-4A9F-A426-FDAFAC8B2ED5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1657312160"/>
+        <c:axId val="1361030544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1657312160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361030544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1361030544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657312160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>450851</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4394224-DFC1-47F1-8800-A7475CB49304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB7DEAA-2B19-414E-A489-F0A0C2E319B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>307974</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>307974</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BDA1E4-71A1-4924-8EA2-311ED0C7665D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C1C46-2ED4-4D31-87F8-7CA3A12C1392}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,26 +4130,6 @@
         <f>LN(F2)</f>
         <v>4.2817782697782674</v>
       </c>
-      <c r="M2">
-        <f>$K$6</f>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N2">
-        <f>$K$3*(A2-$A$2+1)</f>
-        <v>-3.767783078062506E-2</v>
-      </c>
-      <c r="O2">
-        <f>$K$4*G2</f>
-        <v>17.059480511510667</v>
-      </c>
-      <c r="P2">
-        <f>$K$5*H2</f>
-        <v>-0.13042077892744189</v>
-      </c>
-      <c r="Q2">
-        <f>EXP(M2+N2+O2+P2)</f>
-        <v>63.214767171525729</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -580,31 +4164,31 @@
         <f>H2</f>
         <v>4.2817782697782674</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K3">
         <v>-3.767783078062506E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M38" si="4">$K$6</f>
+        <f>$K$6</f>
         <v>-12.74484397016621</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N17" si="5">$K$3*(A3-$A$2+1)</f>
+        <f>$K$3*(A3-$A$2+1)</f>
         <v>-7.535566156125012E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O17" si="6">$K$4*G3</f>
+        <f>$K$4*G3</f>
         <v>17.119742891408364</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P17" si="7">$K$5*H3</f>
-        <v>-0.12658083207747084</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q17" si="8">EXP(M3+N3+O3+P3)</f>
-        <v>64.907451200386191</v>
+        <f t="shared" ref="P3:P38" si="4">$K$5*H2</f>
+        <v>-0.13042077892744189</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>EXP(M3+N3+O3+P3)</f>
+        <v>64.658687962087996</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -637,34 +4221,34 @@
         <v>3.3664251107593333</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I38" si="9">H3</f>
+        <f t="shared" ref="I4:I38" si="5">H3</f>
         <v>4.1557109274841633</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K4">
         <v>1.9353920149674917</v>
       </c>
       <c r="M4">
+        <f t="shared" ref="M4:M38" si="6">$K$6</f>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N38" si="7">$K$3*(A4-$A$2+1)</f>
+        <v>-0.11303349234187518</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O38" si="8">$K$4*G4</f>
+        <v>16.878440744957391</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="5"/>
-        <v>-0.11303349234187518</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="6"/>
-        <v>16.878440744957391</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="7"/>
-        <v>-0.10253958927417053</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="8"/>
-        <v>50.300936397008911</v>
+        <v>-0.12658083207747084</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>EXP(M4+N4+O4+P4)</f>
+        <v>49.106060078500128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -697,34 +4281,34 @@
         <v>3.6747424557666166</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3.3664251107593333</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K5">
         <v>-3.045948919120367E-2</v>
       </c>
       <c r="M5">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>-0.15071132312250024</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>16.772400734480552</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="5"/>
-        <v>-0.15071132312250024</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="6"/>
-        <v>16.772400734480552</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>-0.11193077811188049</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="8"/>
-        <v>43.160022559307478</v>
+        <v>-0.10253958927417053</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q18" si="9">EXP(M5+N5+O5+P5)</f>
+        <v>43.56725569004761</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -757,34 +4341,34 @@
         <v>3.9653138584757861</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3.6747424557666166</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K6">
         <v>-12.74484397016621</v>
       </c>
       <c r="M6">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>-0.1883891539031253</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>16.888968797727919</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="5"/>
-        <v>-0.1883891539031253</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="6"/>
-        <v>16.888968797727919</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>-0.12078143461197333</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="8"/>
-        <v>46.291309285034671</v>
+        <v>-0.11193077811188049</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="9"/>
+        <v>46.7028362178376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -817,34 +4401,34 @@
         <v>3.8518339732039264</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3.9653138584757861</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K7">
         <v>1980</v>
       </c>
       <c r="M7">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>-0.22606698468375036</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>16.989835062706213</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>-0.22606698468375036</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="6"/>
-        <v>16.989835062706213</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>-0.11732489527311608</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="8"/>
-        <v>49.481517330376235</v>
+        <v>-0.12078143461197333</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="9"/>
+        <v>49.310777773170422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -877,28 +4461,28 @@
         <v>3.9384233611812043</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>3.8518339732039264</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>-0.26374481546437545</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>17.062820413834178</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>-0.11732489527311608</v>
+      </c>
+      <c r="Q8" s="1">
         <f t="shared" si="9"/>
-        <v>3.8518339732039264</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
-        <v>-0.26374481546437545</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="6"/>
-        <v>17.062820413834178</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="7"/>
-        <v>-0.11996236380028293</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="8"/>
-        <v>51.124777608796244</v>
+        <v>51.259795575248297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -931,28 +4515,28 @@
         <v>4.1796204434333051</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>3.9384233611812043</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>-0.30142264624500048</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>17.153794528183994</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>-0.11996236380028293</v>
+      </c>
+      <c r="Q9" s="1">
         <f t="shared" si="9"/>
-        <v>3.9384233611812043</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
-        <v>-0.30142264624500048</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="6"/>
-        <v>17.153794528183994</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="7"/>
-        <v>-0.12730910372009066</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="8"/>
-        <v>53.528745466746336</v>
+        <v>53.923455378098225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -985,28 +4569,28 @@
         <v>4.3891938587515806</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1796204434333051</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>-0.33910047702562551</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>17.257342458787811</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>-0.12730910372009066</v>
+      </c>
+      <c r="Q10" s="1">
         <f t="shared" si="9"/>
-        <v>4.1796204434333051</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>-0.33910047702562551</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="6"/>
-        <v>17.257342458787811</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="7"/>
-        <v>-0.1336926028987413</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="8"/>
-        <v>56.809604724678039</v>
+        <v>57.173408725659762</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1039,28 +4623,28 @@
         <v>4.354157658212829</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="5"/>
+        <v>4.3891938587515806</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>-0.3767783078062506</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>17.41795964994013</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>-0.1336926028987413</v>
+      </c>
+      <c r="Q11" s="1">
         <f t="shared" si="9"/>
-        <v>4.3891938587515806</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>-0.3767783078062506</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
-        <v>17.41795964994013</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="7"/>
-        <v>-0.13262541812713036</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="8"/>
-        <v>64.309795088972578</v>
+        <v>64.241201262641653</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1093,28 +4677,28 @@
         <v>4.2517909896446469</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="5"/>
+        <v>4.354157658212829</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>-0.41445613858687569</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
+        <v>17.721196507426122</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>-0.13262541812713036</v>
+      </c>
+      <c r="Q12" s="1">
         <f t="shared" si="9"/>
-        <v>4.354157658212829</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>-0.41445613858687569</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>17.721196507426122</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="7"/>
-        <v>-0.12950738169233827</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="8"/>
-        <v>84.132170196504617</v>
+        <v>83.870251572600964</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1147,28 +4731,28 @@
         <v>4.4313580593567163</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="5"/>
+        <v>4.2517909896446469</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>-0.45213396936750072</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
+        <v>17.835466687745768</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>-0.12950738169233827</v>
+      </c>
+      <c r="Q13" s="1">
         <f t="shared" si="9"/>
-        <v>4.2517909896446469</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>-0.45213396936750072</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
-        <v>17.835466687745768</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="7"/>
-        <v>-0.13497690291132916</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="8"/>
-        <v>90.33381328366049</v>
+        <v>90.829249656977723</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1201,28 +4785,28 @@
         <v>4.6571215916201911</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>4.4313580593567163</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>-0.48981180014812575</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>18.009813334386322</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>-0.13497690291132916</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="9"/>
-        <v>4.4313580593567163</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>-0.48981180014812575</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="6"/>
-        <v>18.009813334386322</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="7"/>
-        <v>-0.14185354478207646</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="8"/>
-        <v>102.85333272218379</v>
+        <v>103.5630557151606</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -1255,28 +4839,28 @@
         <v>4.7514592956848469</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6571215916201911</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>-0.5274896309287509</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>18.10352469357202</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>-0.14185354478207646</v>
+      </c>
+      <c r="Q15" s="1">
         <f t="shared" si="9"/>
-        <v>4.6571215916201911</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>-0.5274896309287509</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
-        <v>18.10352469357202</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="7"/>
-        <v>-0.14472702305935681</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="8"/>
-        <v>108.46896220365872</v>
+        <v>108.78109364700188</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -1309,28 +4893,28 @@
         <v>4.6998285447039008</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>4.7514592956848469</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>-0.56516746170937593</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
+        <v>18.169727674250474</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>-0.14472702305935681</v>
+      </c>
+      <c r="Q16" s="1">
         <f t="shared" si="9"/>
-        <v>4.7514592956848469</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>-0.56516746170937593</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="6"/>
-        <v>18.169727674250474</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="7"/>
-        <v>-0.14315437675791895</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="8"/>
-        <v>111.78326533994914</v>
+        <v>111.60760796081668</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -1363,28 +4947,28 @@
         <v>4.7682834691437792</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6998285447039008</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>-0.60284529249000096</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>18.307241370574214</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>-0.14315437675791895</v>
+      </c>
+      <c r="Q17" s="1">
         <f t="shared" si="9"/>
-        <v>4.6998285447039008</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>-0.60284529249000096</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="6"/>
-        <v>18.307241370574214</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="7"/>
-        <v>-0.14523947878898008</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="8"/>
-        <v>123.26205643706498</v>
+        <v>123.51933853779569</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -1417,28 +5001,28 @@
         <v>5.0033897216361209</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="5"/>
+        <v>4.7682834691437792</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>-0.64052312327062599</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
+        <v>18.407599314610611</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>-0.14523947878898008</v>
+      </c>
+      <c r="Q18" s="1">
         <f t="shared" si="9"/>
-        <v>4.7682834691437792</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ref="N18:N38" si="10">$K$3*(A18-$A$2+1)</f>
-        <v>-0.64052312327062599</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ref="O18:O38" si="11">$K$4*G18</f>
-        <v>18.407599314610611</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ref="P18:P38" si="12">$K$5*H18</f>
-        <v>-0.15240069514555496</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ref="Q18:Q38" si="13">EXP(M18+N18+O18+P18)</f>
-        <v>130.29896306335999</v>
+        <v>131.23541118069431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -1471,28 +5055,28 @@
         <v>5.0622461064035562</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.0033897216361209</v>
       </c>
       <c r="M19">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>-0.67820095405125103</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="8"/>
+        <v>18.520148269128615</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="10"/>
-        <v>-0.67820095405125103</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="11"/>
-        <v>18.520148269128615</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="12"/>
-        <v>-0.15419343056121199</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="13"/>
-        <v>140.1775613486893</v>
+        <v>-0.15240069514555496</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" ref="Q19:Q38" si="10">EXP(M19+N19+O19+P19)</f>
+        <v>140.42908802042061</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -1525,28 +5109,28 @@
         <v>5.0020677643736624</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.0622461064035562</v>
       </c>
       <c r="M20">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>-0.71587878483187617</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="8"/>
+        <v>18.576963174552336</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N20">
+        <v>-0.15419343056121199</v>
+      </c>
+      <c r="Q20" s="1">
         <f t="shared" si="10"/>
-        <v>-0.71587878483187617</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="11"/>
-        <v>18.576963174552336</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="12"/>
-        <v>-0.15236042900260788</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="13"/>
-        <v>143.14813319409885</v>
+        <v>142.88598277730387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -1579,28 +5163,28 @@
         <v>4.7467443624443231</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.0020677643736624</v>
       </c>
       <c r="M21">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>-0.7535566156125012</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
+        <v>18.54442627144785</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N21">
+        <v>-0.15236042900260788</v>
+      </c>
+      <c r="Q21" s="1">
         <f t="shared" si="10"/>
-        <v>-0.7535566156125012</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="11"/>
-        <v>18.54442627144785</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="12"/>
-        <v>-0.14458340860127983</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="13"/>
-        <v>134.48360249412084</v>
+        <v>133.44177717323959</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -1633,28 +5217,28 @@
         <v>4.8639042242376318</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.7467443624443231</v>
       </c>
       <c r="M22">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>-0.79123444639312623</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
+        <v>18.621141012439452</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N22">
+        <v>-0.14458340860127983</v>
+      </c>
+      <c r="Q22" s="1">
         <f t="shared" si="10"/>
-        <v>-0.79123444639312623</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="11"/>
-        <v>18.621141012439452</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="12"/>
-        <v>-0.14815203814521602</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="13"/>
-        <v>139.33910378652413</v>
+        <v>139.83724173516899</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -1687,28 +5271,28 @@
         <v>4.9937678176365825</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.8639042242376318</v>
       </c>
       <c r="M23">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>-0.82891227717375138</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
+        <v>18.661093235834979</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N23">
+        <v>-0.14815203814521602</v>
+      </c>
+      <c r="Q23" s="1">
         <f t="shared" si="10"/>
-        <v>-0.82891227717375138</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="11"/>
-        <v>18.661093235834979</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="12"/>
-        <v>-0.15210761686468222</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="13"/>
-        <v>139.10504562420923</v>
+        <v>139.65637627948354</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -1741,28 +5325,28 @@
         <v>4.9787909230456826</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.9937678176365825</v>
       </c>
       <c r="M24">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>-0.86659010795437641</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>18.698132673852179</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N24">
+        <v>-0.15210761686468222</v>
+      </c>
+      <c r="Q24" s="1">
         <f t="shared" si="10"/>
-        <v>-0.86659010795437641</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="11"/>
-        <v>18.698132673852179</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="12"/>
-        <v>-0.15165142830577291</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="13"/>
-        <v>139.07970240891729</v>
+        <v>139.01627030950098</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -1795,28 +5379,28 @@
         <v>4.976297156515364</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.9787909230456826</v>
       </c>
       <c r="M25">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>-0.90426793873500144</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
+        <v>18.753930095141659</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N25">
+        <v>-0.15165142830577291</v>
+      </c>
+      <c r="Q25" s="1">
         <f t="shared" si="10"/>
-        <v>-0.90426793873500144</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="11"/>
-        <v>18.753930095141659</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="12"/>
-        <v>-0.15157546945109729</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="13"/>
-        <v>141.63349739251541</v>
+        <v>141.62273948285409</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -1849,28 +5433,28 @@
         <v>5.126334072100688</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.976297156515364</v>
       </c>
       <c r="M26">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>-0.94194576951562647</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
+        <v>18.867465199638172</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N26">
+        <v>-0.15157546945109729</v>
+      </c>
+      <c r="Q26" s="1">
         <f t="shared" si="10"/>
-        <v>-0.94194576951562647</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="11"/>
-        <v>18.867465199638172</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="12"/>
-        <v>-0.15614551725965001</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="13"/>
-        <v>152.09874418110613</v>
+        <v>152.79543345272538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -1903,28 +5487,28 @@
         <v>5.1698250572557676</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.126334072100688</v>
       </c>
       <c r="M27">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>-0.97962360029625151</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
+        <v>18.954689368415494</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N27">
+        <v>-0.15614551725965001</v>
+      </c>
+      <c r="Q27" s="1">
         <f t="shared" si="10"/>
-        <v>-0.97962360029625151</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="11"/>
-        <v>18.954689368415494</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="12"/>
-        <v>-0.15747023045189595</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="13"/>
-        <v>159.61290936673805</v>
+        <v>159.82449080484869</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -1957,28 +5541,28 @@
         <v>5.1342725260325865</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1698250572557676</v>
       </c>
       <c r="M28">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>-1.0173014310768766</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
+        <v>19.052738013376551</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N28">
+        <v>-0.15747023045189595</v>
+      </c>
+      <c r="Q28" s="1">
         <f t="shared" si="10"/>
-        <v>-1.0173014310768766</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="11"/>
-        <v>19.052738013376551</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="12"/>
-        <v>-0.15638731851138354</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="13"/>
-        <v>169.72938124169571</v>
+        <v>169.54567875285485</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -2011,28 +5595,28 @@
         <v>5.1219811364098025</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1342725260325865</v>
       </c>
       <c r="M29">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>-1.0549792618575018</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>19.125128219197279</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N29">
+        <v>-0.15638731851138354</v>
+      </c>
+      <c r="Q29" s="1">
         <f t="shared" si="10"/>
-        <v>-1.0549792618575018</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="11"/>
-        <v>19.125128219197279</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="12"/>
-        <v>-0.15601292906202346</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="13"/>
-        <v>175.79034407405871</v>
+        <v>175.7245423424437</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -2065,28 +5649,28 @@
         <v>5.1949621880223766</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1219811364098025</v>
       </c>
       <c r="M30">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>-1.0926570926381267</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>19.172411441046741</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N30">
+        <v>-0.15601292906202346</v>
+      </c>
+      <c r="Q30" s="1">
         <f t="shared" si="10"/>
-        <v>-1.0926570926381267</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="11"/>
-        <v>19.172411441046741</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="12"/>
-        <v>-0.15823589461477935</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="13"/>
-        <v>177.09290531046966</v>
+        <v>177.48701462203064</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -2119,28 +5703,28 @@
         <v>4.757596163493627</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1949621880223766</v>
       </c>
       <c r="M31">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>-1.1303349234187519</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>19.122480344807293</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N31">
+        <v>-0.15823589461477935</v>
+      </c>
+      <c r="Q31" s="1">
         <f t="shared" si="10"/>
-        <v>-1.1303349234187519</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="11"/>
-        <v>19.122480344807293</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="12"/>
-        <v>-0.14491394891804618</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="13"/>
-        <v>164.41397782994142</v>
+        <v>162.23818879596593</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -2173,28 +5757,28 @@
         <v>5.0821815112964259</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.757596163493627</v>
       </c>
       <c r="M32">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>-1.1680127541993768</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>19.213637105780251</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N32">
+        <v>-0.14491394891804618</v>
+      </c>
+      <c r="Q32" s="1">
         <f t="shared" si="10"/>
-        <v>-1.1680127541993768</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="11"/>
-        <v>19.213637105780251</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="12"/>
-        <v>-0.15480065281106861</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="13"/>
-        <v>171.7396605320543</v>
+        <v>173.44602094321692</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -2227,28 +5811,28 @@
         <v>5.2123495241096061</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.0821815112964259</v>
       </c>
       <c r="M33">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>-1.2056905849800019</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>19.310296726603429</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N33">
+        <v>-0.15480065281106861</v>
+      </c>
+      <c r="Q33" s="1">
         <f t="shared" si="10"/>
-        <v>-1.2056905849800019</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="11"/>
-        <v>19.310296726603429</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="12"/>
-        <v>-0.15876550399039213</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="13"/>
-        <v>181.4530000842166</v>
+        <v>182.17386233703689</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -2281,28 +5865,28 @@
         <v>5.2968720707335066</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.2123495241096061</v>
       </c>
       <c r="M34">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>-1.2433684157606271</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
+        <v>19.392955070402696</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N34">
+        <v>-0.15876550399039213</v>
+      </c>
+      <c r="Q34" s="1">
         <f t="shared" si="10"/>
-        <v>-1.2433684157606271</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="11"/>
-        <v>19.392955070402696</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="12"/>
-        <v>-0.16134001758569586</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="13"/>
-        <v>189.31317738078079</v>
+        <v>189.80119466372943</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -2335,28 +5919,28 @@
         <v>5.180684637409871</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.2968720707335066</v>
       </c>
       <c r="M35">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>-1.281046246541252</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>19.452668427421091</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N35">
+        <v>-0.16134001758569586</v>
+      </c>
+      <c r="Q35" s="1">
         <f t="shared" si="10"/>
-        <v>-1.281046246541252</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="11"/>
-        <v>19.452668427421091</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="12"/>
-        <v>-0.15780100771622088</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="13"/>
-        <v>194.2172160376889</v>
+        <v>193.53109420539377</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -2389,28 +5973,28 @@
         <v>5.1479538366745352</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.180684637409871</v>
       </c>
       <c r="M36">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>-1.3187240773218771</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>19.469900113070615</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N36">
+        <v>-0.15780100771622088</v>
+      </c>
+      <c r="Q36" s="1">
         <f t="shared" si="10"/>
-        <v>-1.3187240773218771</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="11"/>
-        <v>19.469900113070615</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="12"/>
-        <v>-0.15680404424500347</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="13"/>
-        <v>190.47634646842971</v>
+        <v>190.28654313808434</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -2443,28 +6027,28 @@
         <v>5.1984649944539711</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1479538366745352</v>
       </c>
       <c r="M37">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>-1.3564019081025021</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>19.497706418729479</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N37">
+        <v>-0.15680404424500347</v>
+      </c>
+      <c r="Q37" s="1">
         <f t="shared" si="10"/>
-        <v>-1.3564019081025021</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="11"/>
-        <v>19.497706418729479</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="12"/>
-        <v>-0.15834258830942138</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="13"/>
-        <v>188.3153501803732</v>
+        <v>188.60530464129315</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -2497,31 +6081,2082 @@
         <v>5.176758366682118</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.1984649944539711</v>
       </c>
       <c r="M38">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>-1.3940797388831272</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>19.506101473755827</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="4"/>
-        <v>-12.74484397016621</v>
-      </c>
-      <c r="N38">
+        <v>-0.15834258830942138</v>
+      </c>
+      <c r="Q38" s="1">
         <f t="shared" si="10"/>
-        <v>-1.3940797388831272</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="11"/>
-        <v>19.506101473755827</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="12"/>
-        <v>-0.15768141551542714</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="13"/>
-        <v>183.00186594149744</v>
+        <v>182.88091007725623</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94E8DB2-2BF2-42B2-8F97-809AA7D65676}">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2">
+        <v>75244937.469999999</v>
+      </c>
+      <c r="C2">
+        <v>11178.816989999999</v>
+      </c>
+      <c r="D2">
+        <v>809000</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2/C2</f>
+        <v>6731.0286533280123</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2/C2</f>
+        <v>72.369017287221908</v>
+      </c>
+      <c r="G2" s="2">
+        <f>LN(E2)</f>
+        <v>8.8144832569215765</v>
+      </c>
+      <c r="H2" s="2">
+        <f>LN(F2)</f>
+        <v>4.2817782697782674</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3">
+        <v>78802559.989999995</v>
+      </c>
+      <c r="C3">
+        <v>11348.441989999999</v>
+      </c>
+      <c r="D3">
+        <v>724000</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E38" si="0">B3/C3</f>
+        <v>6943.9100150874547</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F38" si="1">D3/C3</f>
+        <v>63.797303686089514</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:H38" si="2">LN(E3)</f>
+        <v>8.8456202975994618</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1557109274841633</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H2</f>
+        <v>4.2817782697782674</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>$K$6</f>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N37" si="3">$K$3*(A4-$A$2+1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>$K$4*G3</f>
+        <v>7.2578570180230182</v>
+      </c>
+      <c r="P3">
+        <f>$K$5*H2</f>
+        <v>0.92283360138101145</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>EXP(M3+O3+P3)</f>
+        <v>60.740948753237191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4">
+        <v>70661594.540000007</v>
+      </c>
+      <c r="C4">
+        <v>11527.27403</v>
+      </c>
+      <c r="D4">
+        <v>334000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>6129.9483603930603</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>28.974760132426553</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>8.720941604815339</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3664251107593333</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I38" si="4">H3</f>
+        <v>4.1557109274841633</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>0.82050288999999998</v>
+      </c>
+      <c r="M4">
+        <f>$K$6</f>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>$K$4*G4</f>
+        <v>7.1555577902722236</v>
+      </c>
+      <c r="P4">
+        <f>$K$5*H3</f>
+        <v>0.89566283910054778</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>EXP(M4+O4+P4)</f>
+        <v>53.364625859661714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1983</v>
+      </c>
+      <c r="B5">
+        <v>67980358.790000007</v>
+      </c>
+      <c r="C5">
+        <v>11714.44195</v>
+      </c>
+      <c r="D5">
+        <v>462000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>5803.1239627253435</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>39.438498391295539</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6661516657969031</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6747424557666166</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3664251107593333</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>0.21552578</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M37" si="5">$K$6</f>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O37" si="6">$K$4*G5</f>
+        <v>7.1106024869646731</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P37" si="7">$K$5*H4</f>
+        <v>0.72555139780799172</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q37" si="8">EXP(M5+O5+P5)</f>
+        <v>43.037909551447676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1984</v>
+      </c>
+      <c r="B6">
+        <v>73394748.439999998</v>
+      </c>
+      <c r="C6">
+        <v>11908.188920000001</v>
+      </c>
+      <c r="D6">
+        <v>628000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>6163.3846198671154</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>52.736818689974221</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7263813569116113</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9653138584757861</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6747424557666166</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>7.1600211225880983</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>0.7920017340782155</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="8"/>
+        <v>48.325062415253285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1985</v>
+      </c>
+      <c r="B7">
+        <v>78613636.430000007</v>
+      </c>
+      <c r="C7">
+        <v>12107.22507</v>
+      </c>
+      <c r="D7">
+        <v>570000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>6493.1176198907488</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>47.079326328241784</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7784980672205499</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8518339732039264</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="4"/>
+        <v>3.9653138584757861</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>1980</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>7.2027830340138754</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>0.85462736229280345</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="8"/>
+        <v>53.695964853935706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8">
+        <v>83006565.659999996</v>
+      </c>
+      <c r="C8">
+        <v>12310.6659</v>
+      </c>
+      <c r="D8">
+        <v>632000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>6742.6544050716211</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>51.337596612056544</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>8.8162089550218479</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9384233611812043</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="4"/>
+        <v>3.8518339732039264</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>7.2337249264393062</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>0.83016952150527534</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="8"/>
+        <v>54.045263474147056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1987</v>
+      </c>
+      <c r="B9">
+        <v>88473324.849999994</v>
+      </c>
+      <c r="C9">
+        <v>12518.92993</v>
+      </c>
+      <c r="D9">
+        <v>818000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>7067.1635151487735</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>65.341047882995852</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>8.8632144782679188</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1796204434333051</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="4"/>
+        <v>3.9384233611812043</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>7.2722930941086696</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>0.8488317668888008</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="8"/>
+        <v>57.228516879528698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1988</v>
+      </c>
+      <c r="B10">
+        <v>94934831.269999996</v>
+      </c>
+      <c r="C10">
+        <v>12733.40897</v>
+      </c>
+      <c r="D10">
+        <v>1026000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>7455.5707347236794</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>80.575437608048489</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9167167815754773</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>4.3891938587515806</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="4"/>
+        <v>4.1796204434333051</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>7.3161918885941777</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>0.90081595617490895</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="8"/>
+        <v>62.987437690425573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11">
+        <v>104953435.5</v>
+      </c>
+      <c r="C11">
+        <v>12956.087960000001</v>
+      </c>
+      <c r="D11">
+        <v>1008000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>8100.7041495880667</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>77.801262473059026</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9997062689300673</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>4.354157658212829</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="4"/>
+        <v>4.3891938587515806</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>7.3842850028082374</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>0.94598442997864429</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="8"/>
+        <v>70.541196931391625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12">
+        <v>125464694.3</v>
+      </c>
+      <c r="C12">
+        <v>13242</v>
+      </c>
+      <c r="D12">
+        <v>930000</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>9474.7541383476819</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>70.231082917988218</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1563860811546132</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2517909896446469</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="4"/>
+        <v>4.354157658212829</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>7.5128412415431347</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>0.93843322552929331</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="8"/>
+        <v>79.614953008377739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1991</v>
+      </c>
+      <c r="B13">
+        <v>135256451.09999999</v>
+      </c>
+      <c r="C13">
+        <v>13457</v>
+      </c>
+      <c r="D13">
+        <v>1131000</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>10051.010708181615</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>84.045478189789705</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2154284764088725</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4313580593567163</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2517909896446469</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>7.5612856974817761</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>0.9163705694401344</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="8"/>
+        <v>81.743290001958442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14">
+        <v>150360143.69999999</v>
+      </c>
+      <c r="C14">
+        <v>13671</v>
+      </c>
+      <c r="D14">
+        <v>1440000</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>10998.474412991001</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>105.33245556287031</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3055118524341065</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6571215916201911</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="4"/>
+        <v>4.4313580593567163</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>7.6351993678514374</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>0.95507190220214255</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="8"/>
+        <v>91.487168735911069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15">
+        <v>160267048.5</v>
+      </c>
+      <c r="C15">
+        <v>13883</v>
+      </c>
+      <c r="D15">
+        <v>1607000</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>11544.12219981272</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>115.75307930562559</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3539316859670425</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7514592956848469</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6571215916201911</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>7.6749279811985307</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>1.0037297635887832</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="8"/>
+        <v>99.941518986736597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16">
+        <v>168328798.30000001</v>
+      </c>
+      <c r="C16">
+        <v>14091</v>
+      </c>
+      <c r="D16">
+        <v>1549000</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>11945.837648144206</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>109.92832304307714</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3881381827214305</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6998285447039008</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="4"/>
+        <v>4.7514592956848469</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>7.7029945106422817</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>1.0240619708407273</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="8"/>
+        <v>104.89752712501922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17">
+        <v>183366107.90000001</v>
+      </c>
+      <c r="C17">
+        <v>14297</v>
+      </c>
+      <c r="D17">
+        <v>1683000</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>12825.495411624817</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>117.71700356718192</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>9.4591902978796352</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7682834691437792</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6998285447039008</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>7.7612929764702017</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>1.012934212963573</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="8"/>
+        <v>109.96417703492891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18">
+        <v>195840351.30000001</v>
+      </c>
+      <c r="C18">
+        <v>14498</v>
+      </c>
+      <c r="D18">
+        <v>2159000</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>13508.09430955994</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>148.9170920126914</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5110443632370778</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0033897216361209</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="4"/>
+        <v>4.7682834691437792</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>7.8038393869542322</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>1.0276880139483189</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="8"/>
+        <v>116.44916908239719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19">
+        <v>210387156.80000001</v>
+      </c>
+      <c r="C19">
+        <v>14695</v>
+      </c>
+      <c r="D19">
+        <v>2321000</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>14316.921184076216</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>157.94487921061585</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5691974162865883</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0622461064035562</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0033897216361209</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>7.8515541350436786</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>1.0783594723996079</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="8"/>
+        <v>128.4887134550743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20">
+        <v>219485516.69999999</v>
+      </c>
+      <c r="C20">
+        <v>14887</v>
+      </c>
+      <c r="D20">
+        <v>2214000</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>14743.434990259957</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>148.72036004567744</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5985531772819517</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0020677643736624</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0622461064035562</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>7.8756406217785235</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>1.0910445406345894</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="8"/>
+        <v>133.30138569115462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21">
+        <v>218581025.30000001</v>
+      </c>
+      <c r="C21">
+        <v>15077</v>
+      </c>
+      <c r="D21">
+        <v>1737000</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>14497.647098229092</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>115.20859587451085</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5817416461539633</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7467443624443231</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0020677643736624</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>7.8618467119026842</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>1.0780745565294898</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="8"/>
+        <v>129.78104074103004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>230224701.90000001</v>
+      </c>
+      <c r="C22">
+        <v>15263</v>
+      </c>
+      <c r="D22">
+        <v>1977000</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>15083.843405621437</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>129.52892616130512</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6213794768354592</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8639042242376318</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="4"/>
+        <v>4.7467443624443231</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>7.8943696665301824</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>1.0230457811764155</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="8"/>
+        <v>126.89283453826387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>237829132.69999999</v>
+      </c>
+      <c r="C23">
+        <v>15445</v>
+      </c>
+      <c r="D23">
+        <v>2278000</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>15398.454690838458</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>147.49109744253803</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6420224386160989</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9937678176365825</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="4"/>
+        <v>4.8639042242376318</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>7.9113072763293566</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>1.0482967517741104</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="8"/>
+        <v>132.36079483081178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24">
+        <v>245218413.80000001</v>
+      </c>
+      <c r="C24">
+        <v>15623</v>
+      </c>
+      <c r="D24">
+        <v>2270000</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>15695.987569608911</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>145.29859822057225</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6611603898584058</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9787909230456826</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9937678176365825</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>7.9270100206323484</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>1.0762857040350222</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="8"/>
+        <v>138.27205875425304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25">
+        <v>255250416</v>
+      </c>
+      <c r="C25">
+        <v>15800</v>
+      </c>
+      <c r="D25">
+        <v>2290000</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>16155.089620253164</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>144.9367088607595</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6899904257673928</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>4.976297156515364</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9787909230456826</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>7.9506651484144761</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="7"/>
+        <v>1.0730577971463406</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="8"/>
+        <v>141.12561856507159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26">
+        <v>273652796.10000002</v>
+      </c>
+      <c r="C26">
+        <v>15974</v>
+      </c>
+      <c r="D26">
+        <v>2690000</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>17131.137855264806</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>168.39864780267936</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7486530138211211</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>5.126334072100688</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="4"/>
+        <v>4.976297156515364</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>7.9987979714474395</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>1.072520326169756</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="8"/>
+        <v>148.00495569322325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27">
+        <v>289368212.30000001</v>
+      </c>
+      <c r="C27">
+        <v>16147</v>
+      </c>
+      <c r="D27">
+        <v>2840000</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>17920.865318635042</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>175.88406515142131</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7937209732333592</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1698250572557676</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="4"/>
+        <v>5.126334072100688</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>8.0357763623915837</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="7"/>
+        <v>1.104857149430077</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="8"/>
+        <v>158.62786253880842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28">
+        <v>307648112.60000002</v>
+      </c>
+      <c r="C28">
+        <v>16319</v>
+      </c>
+      <c r="D28">
+        <v>2770000</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>18852.142447453891</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>169.74079294074392</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8443818441074722</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1342725260325865</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1698250572557676</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>8.0773437533537109</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="7"/>
+        <v>1.1142305779285939</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="8"/>
+        <v>166.91785268131241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29">
+        <v>322739250.80000001</v>
+      </c>
+      <c r="C29">
+        <v>16491</v>
+      </c>
+      <c r="D29">
+        <v>2765000</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>19570.629482748165</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>167.66721241889516</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8817852255727736</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1219811364098025</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1342725260325865</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>8.1080333359417622</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>1.1065680909057436</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="8"/>
+        <v>170.80608152647775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30">
+        <v>334130431.30000001</v>
+      </c>
+      <c r="C30">
+        <v>16661</v>
+      </c>
+      <c r="D30">
+        <v>3005000</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>20054.644457115421</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>180.36132284976892</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9062160496558498</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1949621880223766</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1219811364098025</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>8.1280788977070078</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>1.1039189795700091</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="8"/>
+        <v>173.80349766386115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31">
+        <v>328903831.30000001</v>
+      </c>
+      <c r="C31">
+        <v>16829</v>
+      </c>
+      <c r="D31">
+        <v>1960000</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>19543.872559272684</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>116.46562481430864</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8804170922077965</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="2"/>
+        <v>4.757596163493627</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1949621880223766</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>8.1069107785618932</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="7"/>
+        <v>1.1196482776440293</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="8"/>
+        <v>172.86077750553255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32">
+        <v>348125554.30000001</v>
+      </c>
+      <c r="C32">
+        <v>16993</v>
+      </c>
+      <c r="D32">
+        <v>2738000</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>20486.409362678751</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>161.12516918731242</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9275169873546147</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0821815112964259</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="4"/>
+        <v>4.757596163493627</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>8.1455563786485552</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="7"/>
+        <v>1.0253846240619715</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="8"/>
+        <v>163.50906998458566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33">
+        <v>369399224.39999998</v>
+      </c>
+      <c r="C33">
+        <v>17153</v>
+      </c>
+      <c r="D33">
+        <v>3148000</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>21535.546225150119</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>183.52474785751764</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9774601616963778</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2123495241096061</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0821815112964259</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>8.1865348975317449</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="7"/>
+        <v>1.0953411343237409</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="8"/>
+        <v>182.69233196266825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34">
+        <v>389046195</v>
+      </c>
+      <c r="C34">
+        <v>17310</v>
+      </c>
+      <c r="D34">
+        <v>3457000</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>22475.227902946273</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>199.71114962449451</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>10.020168999575228</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2968720707335066</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2123495241096061</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>8.2215776224398827</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="7"/>
+        <v>1.1233956968163517</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="8"/>
+        <v>194.59116721000635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35">
+        <v>404783130.30000001</v>
+      </c>
+      <c r="C35">
+        <v>17463</v>
+      </c>
+      <c r="D35">
+        <v>3105000</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>23179.472616388939</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>177.80450094485482</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>10.051022364969214</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="2"/>
+        <v>5.180684637409871</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2968720707335066</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>8.2468928979118736</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="7"/>
+        <v>1.1416124846050542</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="8"/>
+        <v>203.24920612514117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36">
+        <v>411934594.89999998</v>
+      </c>
+      <c r="C36">
+        <v>17614</v>
+      </c>
+      <c r="D36">
+        <v>3031000</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>23386.771596457362</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>172.0790280458726</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>10.059925825103523</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1479538366745352</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="4"/>
+        <v>5.180684637409871</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>8.2541982126830753</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="7"/>
+        <v>1.1165710974117795</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="8"/>
+        <v>199.67614320083322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>421430746.5</v>
+      </c>
+      <c r="C37">
+        <v>17763</v>
+      </c>
+      <c r="D37">
+        <v>3215000</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>23725.20106400946</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>180.99420142993864</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>10.074293098216062</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1984649944539711</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1479538366745352</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>-4.0740725400000004</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>8.2659866017933332</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="7"/>
+        <v>1.1095167660532719</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="8"/>
+        <v>200.62366263064877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38">
+        <v>426765501.80000001</v>
+      </c>
+      <c r="C38">
+        <v>17910</v>
+      </c>
+      <c r="D38">
+        <v>3172000</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>23828.336225572308</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>177.107761027359</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>10.078630749173296</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>5.176758366682118</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1984649944539711</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/industry/04_CHL_modeled.xlsx
+++ b/industry/04_CHL_modeled.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\python_regression\industry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\python_regressions\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4DBAB719-48AE-487F-A7D7-8EF7DD8264C4}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7FBFFA8E-699D-4A7D-B6FB-0F5B0BB87EE6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{2D493D90-50A9-46D5-80B5-1D445B5FBB02}"/>
   </bookViews>
@@ -1383,109 +1383,109 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="1">
-                  <c:v>60.740948753237191</c:v>
+                  <c:v>61.157041023311372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.364625859661714</c:v>
+                  <c:v>53.760958685636112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.037909551447676</c:v>
+                  <c:v>42.979553546899311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.325062415253285</c:v>
+                  <c:v>48.392931114469611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.695964853935706</c:v>
+                  <c:v>53.915698831266589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.045263474147056</c:v>
+                  <c:v>54.156157259669129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.228516879528698</c:v>
+                  <c:v>57.361059946533018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.987437690425573</c:v>
+                  <c:v>63.262926040830706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.541196931391625</c:v>
+                  <c:v>70.932047984002423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79.614953008377739</c:v>
+                  <c:v>79.808764619453555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.743290001958442</c:v>
+                  <c:v>81.75727267743757</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91.487168735911069</c:v>
+                  <c:v>91.564362413089981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99.941518986736597</c:v>
+                  <c:v>100.22086577565858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.89752712501922</c:v>
+                  <c:v>105.2513666602503</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.96417703492891</c:v>
+                  <c:v>110.13207714330109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.44916908239719</c:v>
+                  <c:v>116.62213817009091</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128.4887134550743</c:v>
+                  <c:v>128.92389932529733</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133.30138569115462</c:v>
+                  <c:v>133.78274001563986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>129.78104074103004</c:v>
+                  <c:v>130.19071962717794</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>126.89283453826387</c:v>
+                  <c:v>126.80960335863392</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132.36079483081178</c:v>
+                  <c:v>132.41784451294484</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>138.27205875425304</c:v>
+                  <c:v>138.50725156251229</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>141.12561856507159</c:v>
+                  <c:v>141.27041342024367</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>148.00495569322325</c:v>
+                  <c:v>148.00457550483844</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>158.62786253880842</c:v>
+                  <c:v>158.79811899409594</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>166.91785268131241</c:v>
+                  <c:v>167.04228096163047</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>170.80608152647775</c:v>
+                  <c:v>170.7502069025187</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>173.80349766386115</c:v>
+                  <c:v>173.64828427398513</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>172.86077750553255</c:v>
+                  <c:v>172.93702657962737</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>163.50906998458566</c:v>
+                  <c:v>162.57514170499445</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>182.69233196266825</c:v>
+                  <c:v>182.21916906241358</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>194.59116721000635</c:v>
+                  <c:v>194.25641492139937</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>203.24920612514117</c:v>
+                  <c:v>203.00364366428576</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>199.67614320083322</c:v>
+                  <c:v>199.12053818491398</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>200.62366263064877</c:v>
+                  <c:v>199.93621454622888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,16 +3710,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>307974</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>307974</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6117,7 +6117,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="M3">
         <f>$K$6</f>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N37" si="3">$K$3*(A4-$A$2+1)</f>
@@ -6249,15 +6249,15 @@
       </c>
       <c r="O3">
         <f>$K$4*G3</f>
-        <v>7.2578570180230182</v>
+        <v>7.1074559091211675</v>
       </c>
       <c r="P3">
         <f>$K$5*H2</f>
-        <v>0.92283360138101145</v>
+        <v>0.97538908985548933</v>
       </c>
       <c r="Q3" s="1">
         <f>EXP(M3+O3+P3)</f>
-        <v>60.740948753237191</v>
+        <v>61.157041023311372</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -6297,11 +6297,11 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.82050288999999998</v>
+        <v>0.80349999999999999</v>
       </c>
       <c r="M4">
         <f>$K$6</f>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
@@ -6309,15 +6309,15 @@
       </c>
       <c r="O4">
         <f>$K$4*G4</f>
-        <v>7.1555577902722236</v>
+        <v>7.0072765794691252</v>
       </c>
       <c r="P4">
         <f>$K$5*H3</f>
-        <v>0.89566283910054778</v>
+        <v>0.94667094928089235</v>
       </c>
       <c r="Q4" s="1">
         <f>EXP(M4+O4+P4)</f>
-        <v>53.364625859661714</v>
+        <v>53.760958685636112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -6357,11 +6357,11 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.21552578</v>
+        <v>0.2278</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M37" si="5">$K$6</f>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
@@ -6369,15 +6369,15 @@
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O37" si="6">$K$4*G5</f>
-        <v>7.1106024869646731</v>
+        <v>6.9632528634678117</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P37" si="7">$K$5*H4</f>
-        <v>0.72555139780799172</v>
+        <v>0.76687164023097609</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ref="Q5:Q37" si="8">EXP(M5+O5+P5)</f>
-        <v>43.037909551447676</v>
+        <v>42.979553546899311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -6417,11 +6417,11 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
@@ -6429,15 +6429,15 @@
       </c>
       <c r="O6">
         <f t="shared" si="6"/>
-        <v>7.1600211225880983</v>
+        <v>7.0116474202784795</v>
       </c>
       <c r="P6">
         <f t="shared" si="7"/>
-        <v>0.7920017340782155</v>
+        <v>0.83710633142363533</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="8"/>
-        <v>48.325062415253285</v>
+        <v>48.392931114469611</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
@@ -6489,15 +6489,15 @@
       </c>
       <c r="O7">
         <f t="shared" si="6"/>
-        <v>7.2027830340138754</v>
+        <v>7.053523197011712</v>
       </c>
       <c r="P7">
         <f t="shared" si="7"/>
-        <v>0.85462736229280345</v>
+        <v>0.90329849696078413</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="8"/>
-        <v>53.695964853935706</v>
+        <v>53.915698831266589</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
@@ -6543,15 +6543,15 @@
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>7.2337249264393062</v>
+        <v>7.0838238953600543</v>
       </c>
       <c r="P8">
         <f t="shared" si="7"/>
-        <v>0.83016952150527534</v>
+        <v>0.87744777909585447</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="8"/>
-        <v>54.045263474147056</v>
+        <v>54.156157259669129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
@@ -6597,15 +6597,15 @@
       </c>
       <c r="O9">
         <f t="shared" si="6"/>
-        <v>7.2722930941086696</v>
+        <v>7.1215928332882728</v>
       </c>
       <c r="P9">
         <f t="shared" si="7"/>
-        <v>0.8488317668888008</v>
+        <v>0.89717284167707834</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="8"/>
-        <v>57.228516879528698</v>
+        <v>57.361059946533018</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
@@ -6651,15 +6651,15 @@
       </c>
       <c r="O10">
         <f t="shared" si="6"/>
-        <v>7.3161918885941777</v>
+        <v>7.1645819339958958</v>
       </c>
       <c r="P10">
         <f t="shared" si="7"/>
-        <v>0.90081595617490895</v>
+        <v>0.95211753701410695</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="8"/>
-        <v>62.987437690425573</v>
+        <v>63.262926040830706</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
@@ -6705,15 +6705,15 @@
       </c>
       <c r="O11">
         <f t="shared" si="6"/>
-        <v>7.3842850028082374</v>
+        <v>7.2312639870853088</v>
       </c>
       <c r="P11">
         <f t="shared" si="7"/>
-        <v>0.94598442997864429</v>
+        <v>0.99985836102361003</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="8"/>
-        <v>70.541196931391625</v>
+        <v>70.932047984002423</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
@@ -6759,15 +6759,15 @@
       </c>
       <c r="O12">
         <f t="shared" si="6"/>
-        <v>7.5128412415431347</v>
+        <v>7.3571562162077315</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
-        <v>0.93843322552929331</v>
+        <v>0.99187711454088245</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="8"/>
-        <v>79.614953008377739</v>
+        <v>79.808764619453555</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
@@ -6813,15 +6813,15 @@
       </c>
       <c r="O13">
         <f t="shared" si="6"/>
-        <v>7.5612856974817761</v>
+        <v>7.4045967807945292</v>
       </c>
       <c r="P13">
         <f t="shared" si="7"/>
-        <v>0.9163705694401344</v>
+        <v>0.96855798744105059</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="8"/>
-        <v>81.743290001958442</v>
+        <v>81.75727267743757</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
@@ -6867,15 +6867,15 @@
       </c>
       <c r="O14">
         <f t="shared" si="6"/>
-        <v>7.6351993678514374</v>
+        <v>7.4769787734308046</v>
       </c>
       <c r="P14">
         <f t="shared" si="7"/>
-        <v>0.95507190220214255</v>
+        <v>1.00946336592146</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="8"/>
-        <v>91.487168735911069</v>
+        <v>91.564362413089981</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
@@ -6921,15 +6921,15 @@
       </c>
       <c r="O15">
         <f t="shared" si="6"/>
-        <v>7.6749279811985307</v>
+        <v>7.5158841096745181</v>
       </c>
       <c r="P15">
         <f t="shared" si="7"/>
-        <v>1.0037297635887832</v>
+        <v>1.0608922985710796</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="8"/>
-        <v>99.941518986736597</v>
+        <v>100.22086577565858</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
@@ -6975,15 +6975,15 @@
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>7.7029945106422817</v>
+        <v>7.5433690298166693</v>
       </c>
       <c r="P16">
         <f t="shared" si="7"/>
-        <v>1.0240619708407273</v>
+        <v>1.0823824275570082</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="8"/>
-        <v>104.89752712501922</v>
+        <v>105.2513666602503</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
@@ -7029,15 +7029,15 @@
       </c>
       <c r="O17">
         <f t="shared" si="6"/>
-        <v>7.7612929764702017</v>
+        <v>7.600459404346287</v>
       </c>
       <c r="P17">
         <f t="shared" si="7"/>
-        <v>1.012934212963573</v>
+        <v>1.0706209424835487</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="8"/>
-        <v>109.96417703492891</v>
+        <v>110.13207714330109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
@@ -7083,15 +7083,15 @@
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>7.8038393869542322</v>
+        <v>7.6421241458609916</v>
       </c>
       <c r="P18">
         <f t="shared" si="7"/>
-        <v>1.0276880139483189</v>
+        <v>1.0862149742709528</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="8"/>
-        <v>116.44916908239719</v>
+        <v>116.62213817009091</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
@@ -7137,15 +7137,15 @@
       </c>
       <c r="O19">
         <f t="shared" si="6"/>
-        <v>7.8515541350436786</v>
+        <v>7.6888501239862732</v>
       </c>
       <c r="P19">
         <f t="shared" si="7"/>
-        <v>1.0783594723996079</v>
+        <v>1.1397721785887083</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="8"/>
-        <v>128.4887134550743</v>
+        <v>128.92389932529733</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
@@ -7191,15 +7191,15 @@
       </c>
       <c r="O20">
         <f t="shared" si="6"/>
-        <v>7.8756406217785235</v>
+        <v>7.7124374779460485</v>
       </c>
       <c r="P20">
         <f t="shared" si="7"/>
-        <v>1.0910445406345894</v>
+        <v>1.1531796630387301</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="8"/>
-        <v>133.30138569115462</v>
+        <v>133.78274001563986</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
@@ -7245,15 +7245,15 @@
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
-        <v>7.8618467119026842</v>
+        <v>7.6989294126847092</v>
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>1.0780745565294898</v>
+        <v>1.1394710367243204</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="8"/>
-        <v>129.78104074103004</v>
+        <v>130.19071962717794</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
@@ -7299,15 +7299,15 @@
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>7.8943696665301824</v>
+        <v>7.7307784096372911</v>
       </c>
       <c r="P22">
         <f t="shared" si="7"/>
-        <v>1.0230457811764155</v>
+        <v>1.0813083657648168</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="8"/>
-        <v>126.89283453826387</v>
+        <v>126.80960335863392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
@@ -7353,15 +7353,15 @@
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>7.9113072763293566</v>
+        <v>7.7473650294280354</v>
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>1.0482967517741104</v>
+        <v>1.1079973822813325</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="8"/>
-        <v>132.36079483081178</v>
+        <v>132.41784451294484</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
@@ -7407,15 +7407,15 @@
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
-        <v>7.9270100206323484</v>
+        <v>7.7627423732512293</v>
       </c>
       <c r="P24">
         <f t="shared" si="7"/>
-        <v>1.0762857040350222</v>
+        <v>1.1375803088576135</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="8"/>
-        <v>138.27205875425304</v>
+        <v>138.50725156251229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
@@ -7461,15 +7461,15 @@
       </c>
       <c r="O25">
         <f t="shared" si="6"/>
-        <v>7.9506651484144761</v>
+        <v>7.7859073071041003</v>
       </c>
       <c r="P25">
         <f t="shared" si="7"/>
-        <v>1.0730577971463406</v>
+        <v>1.1341685722698065</v>
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="8"/>
-        <v>141.12561856507159</v>
+        <v>141.27041342024367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
@@ -7515,15 +7515,15 @@
       </c>
       <c r="O26">
         <f t="shared" si="6"/>
-        <v>7.9987979714474395</v>
+        <v>7.8330426966052711</v>
       </c>
       <c r="P26">
         <f t="shared" si="7"/>
-        <v>1.072520326169756</v>
+        <v>1.1336004922542</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="8"/>
-        <v>148.00495569322325</v>
+        <v>148.00457550483844</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
@@ -7569,15 +7569,15 @@
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
-        <v>8.0357763623915837</v>
+        <v>7.8692548019930042</v>
       </c>
       <c r="P27">
         <f t="shared" si="7"/>
-        <v>1.104857149430077</v>
+        <v>1.1677789016245368</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="8"/>
-        <v>158.62786253880842</v>
+        <v>158.79811899409594</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
@@ -7623,15 +7623,15 @@
       </c>
       <c r="O28">
         <f t="shared" si="6"/>
-        <v>8.0773437533537109</v>
+        <v>7.9099608117403539</v>
       </c>
       <c r="P28">
         <f t="shared" si="7"/>
-        <v>1.1142305779285939</v>
+        <v>1.1776861480428638</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="8"/>
-        <v>166.91785268131241</v>
+        <v>167.04228096163047</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
@@ -7677,15 +7677,15 @@
       </c>
       <c r="O29">
         <f t="shared" si="6"/>
-        <v>8.1080333359417622</v>
+        <v>7.9400144287477232</v>
       </c>
       <c r="P29">
         <f t="shared" si="7"/>
-        <v>1.1065680909057436</v>
+        <v>1.1695872814302233</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="8"/>
-        <v>170.80608152647775</v>
+        <v>170.7502069025187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
@@ -7731,15 +7731,15 @@
       </c>
       <c r="O30">
         <f t="shared" si="6"/>
-        <v>8.1280788977070078</v>
+        <v>7.9596445958984754</v>
       </c>
       <c r="P30">
         <f t="shared" si="7"/>
-        <v>1.1039189795700091</v>
+        <v>1.1667873028741531</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="8"/>
-        <v>173.80349766386115</v>
+        <v>173.64828427398513</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
@@ -7785,15 +7785,15 @@
       </c>
       <c r="O31">
         <f t="shared" si="6"/>
-        <v>8.1069107785618932</v>
+        <v>7.9389151335889645</v>
       </c>
       <c r="P31">
         <f t="shared" si="7"/>
-        <v>1.1196482776440293</v>
+        <v>1.1834123864314974</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="8"/>
-        <v>172.86077750553255</v>
+        <v>172.93702657962737</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
@@ -7839,15 +7839,15 @@
       </c>
       <c r="O32">
         <f t="shared" si="6"/>
-        <v>8.1455563786485552</v>
+        <v>7.9767598993394326</v>
       </c>
       <c r="P32">
         <f t="shared" si="7"/>
-        <v>1.0253846240619715</v>
+        <v>1.0837804060438483</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="8"/>
-        <v>163.50906998458566</v>
+        <v>162.57514170499445</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
@@ -7893,15 +7893,15 @@
       </c>
       <c r="O33">
         <f t="shared" si="6"/>
-        <v>8.1865348975317449</v>
+        <v>8.0168892399230387</v>
       </c>
       <c r="P33">
         <f t="shared" si="7"/>
-        <v>1.0953411343237409</v>
+        <v>1.1577209482733259</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="8"/>
-        <v>182.69233196266825</v>
+        <v>182.21916906241358</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
@@ -7947,15 +7947,15 @@
       </c>
       <c r="O34">
         <f t="shared" si="6"/>
-        <v>8.2215776224398827</v>
+        <v>8.0512057911586954</v>
       </c>
       <c r="P34">
         <f t="shared" si="7"/>
-        <v>1.1233956968163517</v>
+        <v>1.1873732215921682</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="8"/>
-        <v>194.59116721000635</v>
+        <v>194.25641492139937</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N35">
         <f t="shared" si="3"/>
@@ -8001,15 +8001,15 @@
       </c>
       <c r="O35">
         <f t="shared" si="6"/>
-        <v>8.2468928979118736</v>
+        <v>8.0759964702527629</v>
       </c>
       <c r="P35">
         <f t="shared" si="7"/>
-        <v>1.1416124846050542</v>
+        <v>1.2066274577130929</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="8"/>
-        <v>203.24920612514117</v>
+        <v>203.00364366428576</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
@@ -8055,15 +8055,15 @@
       </c>
       <c r="O36">
         <f t="shared" si="6"/>
-        <v>8.2541982126830753</v>
+        <v>8.0831504004706805</v>
       </c>
       <c r="P36">
         <f t="shared" si="7"/>
-        <v>1.1165710974117795</v>
+        <v>1.1801599604019686</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="8"/>
-        <v>199.67614320083322</v>
+        <v>199.12053818491398</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="M37">
         <f t="shared" si="5"/>
-        <v>-4.0740725400000004</v>
+        <v>-3.9693999999999998</v>
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
@@ -8109,15 +8109,15 @@
       </c>
       <c r="O37">
         <f t="shared" si="6"/>
-        <v>8.2659866017933332</v>
+        <v>8.094694504416605</v>
       </c>
       <c r="P37">
         <f t="shared" si="7"/>
-        <v>1.1095167660532719</v>
+        <v>1.1727038839944592</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="8"/>
-        <v>200.62366263064877</v>
+        <v>199.93621454622888</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">

--- a/industry/04_CHL_modeled.xlsx
+++ b/industry/04_CHL_modeled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\python_regressions\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7FBFFA8E-699D-4A7D-B6FB-0F5B0BB87EE6}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{06527DF4-FD9D-4E37-9692-18036A4178AF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{2D493D90-50A9-46D5-80B5-1D445B5FBB02}"/>
   </bookViews>
@@ -113,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,11 +139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3710,16 +3719,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4049,7 +4058,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J7"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6114,15 +6123,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94E8DB2-2BF2-42B2-8F97-809AA7D65676}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -6214,7 +6224,7 @@
         <v>724000</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E38" si="0">B3/C3</f>
+        <f t="shared" ref="E3:E66" si="0">B3/C3</f>
         <v>6943.9100150874547</v>
       </c>
       <c r="F3" s="1">
@@ -6222,7 +6232,7 @@
         <v>63.797303686089514</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:H38" si="2">LN(E3)</f>
+        <f t="shared" ref="G3:H40" si="2">LN(E3)</f>
         <v>8.8456202975994618</v>
       </c>
       <c r="H3" s="2">
@@ -6256,7 +6266,7 @@
         <v>0.97538908985548933</v>
       </c>
       <c r="Q3" s="1">
-        <f>EXP(M3+O3+P3)</f>
+        <f>EXP(M3+N3+O3+P3)</f>
         <v>61.157041023311372</v>
       </c>
     </row>
@@ -6316,7 +6326,7 @@
         <v>0.94667094928089235</v>
       </c>
       <c r="Q4" s="1">
-        <f>EXP(M4+O4+P4)</f>
+        <f t="shared" ref="Q4:Q67" si="5">EXP(M4+N4+O4+P4)</f>
         <v>53.760958685636112</v>
       </c>
     </row>
@@ -6360,7 +6370,7 @@
         <v>0.2278</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M37" si="5">$K$6</f>
+        <f t="shared" ref="M5:M68" si="6">$K$6</f>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N5">
@@ -6368,15 +6378,15 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O37" si="6">$K$4*G5</f>
+        <f t="shared" ref="O5:O37" si="7">$K$4*G5</f>
         <v>6.9632528634678117</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P37" si="7">$K$5*H4</f>
+        <f t="shared" ref="P5:P37" si="8">$K$5*H4</f>
         <v>0.76687164023097609</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" ref="Q5:Q37" si="8">EXP(M5+O5+P5)</f>
+        <f t="shared" si="5"/>
         <v>42.979553546899311</v>
       </c>
     </row>
@@ -6420,7 +6430,7 @@
         <v>-3.9693999999999998</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N6">
@@ -6428,15 +6438,15 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0116474202784795</v>
       </c>
       <c r="P6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.83710633142363533</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>48.392931114469611</v>
       </c>
     </row>
@@ -6480,7 +6490,7 @@
         <v>1980</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N7">
@@ -6488,15 +6498,15 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.053523197011712</v>
       </c>
       <c r="P7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90329849696078413</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>53.915698831266589</v>
       </c>
     </row>
@@ -6534,7 +6544,7 @@
         <v>3.8518339732039264</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N8">
@@ -6542,15 +6552,15 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0838238953600543</v>
       </c>
       <c r="P8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.87744777909585447</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>54.156157259669129</v>
       </c>
     </row>
@@ -6588,7 +6598,7 @@
         <v>3.9384233611812043</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N9">
@@ -6596,15 +6606,15 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.1215928332882728</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.89717284167707834</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>57.361059946533018</v>
       </c>
     </row>
@@ -6642,7 +6652,7 @@
         <v>4.1796204434333051</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N10">
@@ -6650,15 +6660,15 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.1645819339958958</v>
       </c>
       <c r="P10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.95211753701410695</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>63.262926040830706</v>
       </c>
     </row>
@@ -6696,7 +6706,7 @@
         <v>4.3891938587515806</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N11">
@@ -6704,15 +6714,15 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2312639870853088</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99985836102361003</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>70.932047984002423</v>
       </c>
     </row>
@@ -6750,7 +6760,7 @@
         <v>4.354157658212829</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N12">
@@ -6758,15 +6768,15 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3571562162077315</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99187711454088245</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>79.808764619453555</v>
       </c>
     </row>
@@ -6804,7 +6814,7 @@
         <v>4.2517909896446469</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N13">
@@ -6812,15 +6822,15 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4045967807945292</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96855798744105059</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>81.75727267743757</v>
       </c>
     </row>
@@ -6858,7 +6868,7 @@
         <v>4.4313580593567163</v>
       </c>
       <c r="M14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N14">
@@ -6866,15 +6876,15 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4769787734308046</v>
       </c>
       <c r="P14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.00946336592146</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>91.564362413089981</v>
       </c>
     </row>
@@ -6912,7 +6922,7 @@
         <v>4.6571215916201911</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N15">
@@ -6920,15 +6930,15 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5158841096745181</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0608922985710796</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>100.22086577565858</v>
       </c>
     </row>
@@ -6966,7 +6976,7 @@
         <v>4.7514592956848469</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N16">
@@ -6974,15 +6984,15 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5433690298166693</v>
       </c>
       <c r="P16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0823824275570082</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>105.2513666602503</v>
       </c>
     </row>
@@ -7020,7 +7030,7 @@
         <v>4.6998285447039008</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N17">
@@ -7028,15 +7038,15 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.600459404346287</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0706209424835487</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>110.13207714330109</v>
       </c>
     </row>
@@ -7074,7 +7084,7 @@
         <v>4.7682834691437792</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N18">
@@ -7082,15 +7092,15 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6421241458609916</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0862149742709528</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>116.62213817009091</v>
       </c>
     </row>
@@ -7128,7 +7138,7 @@
         <v>5.0033897216361209</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N19">
@@ -7136,15 +7146,15 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6888501239862732</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1397721785887083</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>128.92389932529733</v>
       </c>
     </row>
@@ -7182,7 +7192,7 @@
         <v>5.0622461064035562</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N20">
@@ -7190,15 +7200,15 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7124374779460485</v>
       </c>
       <c r="P20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1531796630387301</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>133.78274001563986</v>
       </c>
     </row>
@@ -7236,7 +7246,7 @@
         <v>5.0020677643736624</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N21">
@@ -7244,15 +7254,15 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6989294126847092</v>
       </c>
       <c r="P21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1394710367243204</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>130.19071962717794</v>
       </c>
     </row>
@@ -7290,7 +7300,7 @@
         <v>4.7467443624443231</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N22">
@@ -7298,15 +7308,15 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7307784096372911</v>
       </c>
       <c r="P22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0813083657648168</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>126.80960335863392</v>
       </c>
     </row>
@@ -7344,7 +7354,7 @@
         <v>4.8639042242376318</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N23">
@@ -7352,15 +7362,15 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7473650294280354</v>
       </c>
       <c r="P23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1079973822813325</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>132.41784451294484</v>
       </c>
     </row>
@@ -7398,7 +7408,7 @@
         <v>4.9937678176365825</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N24">
@@ -7406,15 +7416,15 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7627423732512293</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1375803088576135</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>138.50725156251229</v>
       </c>
     </row>
@@ -7452,7 +7462,7 @@
         <v>4.9787909230456826</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N25">
@@ -7460,15 +7470,15 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7859073071041003</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1341685722698065</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>141.27041342024367</v>
       </c>
     </row>
@@ -7506,7 +7516,7 @@
         <v>4.976297156515364</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N26">
@@ -7514,15 +7524,15 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8330426966052711</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1336004922542</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>148.00457550483844</v>
       </c>
     </row>
@@ -7560,7 +7570,7 @@
         <v>5.126334072100688</v>
       </c>
       <c r="M27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N27">
@@ -7568,15 +7578,15 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8692548019930042</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1677789016245368</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>158.79811899409594</v>
       </c>
     </row>
@@ -7614,7 +7624,7 @@
         <v>5.1698250572557676</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N28">
@@ -7622,15 +7632,15 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9099608117403539</v>
       </c>
       <c r="P28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1776861480428638</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>167.04228096163047</v>
       </c>
     </row>
@@ -7668,7 +7678,7 @@
         <v>5.1342725260325865</v>
       </c>
       <c r="M29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N29">
@@ -7676,15 +7686,15 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9400144287477232</v>
       </c>
       <c r="P29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1695872814302233</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>170.7502069025187</v>
       </c>
     </row>
@@ -7722,7 +7732,7 @@
         <v>5.1219811364098025</v>
       </c>
       <c r="M30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N30">
@@ -7730,15 +7740,15 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9596445958984754</v>
       </c>
       <c r="P30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1667873028741531</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>173.64828427398513</v>
       </c>
     </row>
@@ -7776,7 +7786,7 @@
         <v>5.1949621880223766</v>
       </c>
       <c r="M31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N31">
@@ -7784,15 +7794,15 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9389151335889645</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1834123864314974</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>172.93702657962737</v>
       </c>
     </row>
@@ -7830,7 +7840,7 @@
         <v>4.757596163493627</v>
       </c>
       <c r="M32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N32">
@@ -7838,15 +7848,15 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9767598993394326</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0837804060438483</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>162.57514170499445</v>
       </c>
     </row>
@@ -7884,7 +7894,7 @@
         <v>5.0821815112964259</v>
       </c>
       <c r="M33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N33">
@@ -7892,15 +7902,15 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0168892399230387</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1577209482733259</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>182.21916906241358</v>
       </c>
     </row>
@@ -7938,7 +7948,7 @@
         <v>5.2123495241096061</v>
       </c>
       <c r="M34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N34">
@@ -7946,15 +7956,15 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0512057911586954</v>
       </c>
       <c r="P34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1873732215921682</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>194.25641492139937</v>
       </c>
     </row>
@@ -7992,7 +8002,7 @@
         <v>5.2968720707335066</v>
       </c>
       <c r="M35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N35">
@@ -8000,15 +8010,15 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0759964702527629</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2066274577130929</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>203.00364366428576</v>
       </c>
     </row>
@@ -8046,7 +8056,7 @@
         <v>5.180684637409871</v>
       </c>
       <c r="M36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N36">
@@ -8054,15 +8064,15 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0831504004706805</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1801599604019686</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>199.12053818491398</v>
       </c>
     </row>
@@ -8100,7 +8110,7 @@
         <v>5.1479538366745352</v>
       </c>
       <c r="M37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N37">
@@ -8108,15 +8118,15 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.094694504416605</v>
       </c>
       <c r="P37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1727038839944592</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>199.93621454622888</v>
       </c>
     </row>
@@ -8138,11 +8148,11 @@
         <v>23828.336225572308</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
+        <f>D38/C38</f>
         <v>177.107761027359</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f>LN(E38)</f>
         <v>10.078630749173296</v>
       </c>
       <c r="H38" s="2">
@@ -8152,6 +8162,1624 @@
       <c r="I38" s="2">
         <f t="shared" si="4"/>
         <v>5.1984649944539711</v>
+      </c>
+      <c r="M38">
+        <f>$K$6</f>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N43" si="9">$K$3*(A39-$A$2+1)</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>$K$4*G38</f>
+        <v>8.0981798069607436</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ref="P38:P43" si="10">$K$5*H37</f>
+        <v>1.1842103257366146</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="5"/>
+        <v>202.95618792058954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="4">
+        <v>433123906.60000002</v>
+      </c>
+      <c r="C39" s="4">
+        <v>17910</v>
+      </c>
+      <c r="E39" s="5">
+        <f>B39/C39</f>
+        <v>24183.356035734228</v>
+      </c>
+      <c r="F39" s="1">
+        <f>Q39</f>
+        <v>204.36925932645042</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" ref="G39:H72" si="11">LN(E39)</f>
+        <v>10.093419908406053</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3199284523344499</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" ref="O38:O43" si="12">$K$4*G39</f>
+        <v>8.1100628964042638</v>
+      </c>
+      <c r="P39" s="4">
+        <f>$K$5*H38</f>
+        <v>1.1792655559301866</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="5"/>
+        <v>204.36925932645042</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="4">
+        <v>457489274.69999999</v>
+      </c>
+      <c r="C40" s="4">
+        <v>18055</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>25338.647172528385</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40:F72" si="13">Q40</f>
+        <v>219.21190286753588</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="11"/>
+        <v>10.140086065414806</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3900388550025848</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="12"/>
+        <v>8.1475591535607972</v>
+      </c>
+      <c r="P40" s="4">
+        <f>$K$5*H39</f>
+        <v>1.2118797014417877</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="5"/>
+        <v>219.21190286753588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="4">
+        <v>482243933.10000002</v>
+      </c>
+      <c r="C41" s="4">
+        <v>18197</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>26501.28774523273</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="13"/>
+        <v>230.91670365366673</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="11"/>
+        <v>10.184948604953382</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="11"/>
+        <v>5.4420570552496317</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="12"/>
+        <v>8.1836062040800428</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="10"/>
+        <v>1.2278508511695889</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="5"/>
+        <v>230.91670365366673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="4">
+        <v>507191163.80000001</v>
+      </c>
+      <c r="C42" s="4">
+        <v>18336</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>27660.949160122163</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="13"/>
+        <v>241.85039979032089</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="11"/>
+        <v>10.227776919891099</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="11"/>
+        <v>5.4883193523183635</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="12"/>
+        <v>8.2180187551324977</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="10"/>
+        <v>1.2397005971858661</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="5"/>
+        <v>241.85039979032089</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="4">
+        <v>532183277.89999998</v>
+      </c>
+      <c r="C43" s="4">
+        <v>18472</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>28810.268400822864</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="13"/>
+        <v>252.53972646681544</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="11"/>
+        <v>10.26848714427339</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="11"/>
+        <v>5.5315685688817915</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="12"/>
+        <v>8.250729420423669</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="10"/>
+        <v>1.2502391484581232</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="5"/>
+        <v>252.53972646681544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="4">
+        <v>557093007.39999998</v>
+      </c>
+      <c r="C44" s="4">
+        <v>18605</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>29943.18771298038</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="13"/>
+        <v>263.06778005016423</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="11"/>
+        <v>10.307057122345512</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="11"/>
+        <v>5.572411717795891</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" ref="N44:N67" si="14">$K$3*(A45-$A$2+1)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" ref="O44:O67" si="15">$K$4*G44</f>
+        <v>8.2817203978046194</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" ref="P44:P67" si="16">$K$5*H43</f>
+        <v>1.2600913199912722</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" si="5"/>
+        <v>263.06778005016423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="4">
+        <v>581818868.79999995</v>
+      </c>
+      <c r="C45" s="4">
+        <v>18734</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>31056.841507419664</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="13"/>
+        <v>273.43321919507957</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="11"/>
+        <v>10.343574401493894</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="11"/>
+        <v>5.6110574209142472</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="15"/>
+        <v>8.3110620316003434</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="16"/>
+        <v>1.2693953893139041</v>
+      </c>
+      <c r="Q45" s="5">
+        <f t="shared" si="5"/>
+        <v>273.43321919507957</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B46" s="4">
+        <v>606298879.70000005</v>
+      </c>
+      <c r="C46" s="4">
+        <v>18859</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>32149.047123389366</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="13"/>
+        <v>283.61929729798504</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="11"/>
+        <v>10.378138090762754</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="11"/>
+        <v>5.6476328364121384</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="15"/>
+        <v>8.338833955927873</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="16"/>
+        <v>1.2781988804842654</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="5"/>
+        <v>283.61929729798504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="4">
+        <v>630504357.39999998</v>
+      </c>
+      <c r="C47" s="4">
+        <v>18980</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>33219.40766069547</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="13"/>
+        <v>293.61826794649619</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="11"/>
+        <v>10.410889552204447</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="11"/>
+        <v>5.682280515330957</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" si="15"/>
+        <v>8.3651497551962724</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="16"/>
+        <v>1.2865307601346851</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" si="5"/>
+        <v>293.61826794649619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B48" s="4">
+        <v>654435100.89999998</v>
+      </c>
+      <c r="C48" s="4">
+        <v>19099</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>34265.411848787895</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="13"/>
+        <v>303.4095373112774</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="11"/>
+        <v>10.441891723465796</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="11"/>
+        <v>5.7150835011971575</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="15"/>
+        <v>8.390059999804766</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="16"/>
+        <v>1.2944235013923919</v>
+      </c>
+      <c r="Q48" s="5">
+        <f t="shared" si="5"/>
+        <v>303.4095373112774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>2027</v>
+      </c>
+      <c r="B49" s="4">
+        <v>678110765.70000005</v>
+      </c>
+      <c r="C49" s="4">
+        <v>19214</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>35292.534906838766</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="13"/>
+        <v>313.02636212775906</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="11"/>
+        <v>10.471426744830296</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="11"/>
+        <v>5.7462874110438555</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="15"/>
+        <v>8.4137913894711431</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3018960215727124</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="5"/>
+        <v>313.02636212775906</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B50" s="4">
+        <v>701559225.70000005</v>
+      </c>
+      <c r="C50" s="4">
+        <v>19327</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>36299.437351891138</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="13"/>
+        <v>322.46633387594869</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="11"/>
+        <v>10.499557520184915</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="11"/>
+        <v>5.7759987397043693</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="15"/>
+        <v>8.4363944674685794</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3090042722357904</v>
+      </c>
+      <c r="Q50" s="5">
+        <f t="shared" si="5"/>
+        <v>322.46633387594869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>2029</v>
+      </c>
+      <c r="B51" s="4">
+        <v>724816238.89999998</v>
+      </c>
+      <c r="C51" s="4">
+        <v>19435</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>37294.378127090298</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="13"/>
+        <v>331.7872348251762</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="11"/>
+        <v>10.526597873819094</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="11"/>
+        <v>5.8044939045182966</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="15"/>
+        <v>8.4581213916136413</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3157725129046554</v>
+      </c>
+      <c r="Q51" s="5">
+        <f t="shared" si="5"/>
+        <v>331.7872348251762</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>2030</v>
+      </c>
+      <c r="B52" s="4">
+        <v>747923988.60000002</v>
+      </c>
+      <c r="C52" s="4">
+        <v>19538</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>38280.478482956292</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="13"/>
+        <v>341.02453375522299</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="11"/>
+        <v>10.552695345043533</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="11"/>
+        <v>5.8319544211917469</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="15"/>
+        <v>8.4790907097424792</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3222637114492679</v>
+      </c>
+      <c r="Q52" s="5">
+        <f t="shared" si="5"/>
+        <v>341.02453375522299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>2031</v>
+      </c>
+      <c r="B53" s="4">
+        <v>770928878.60000002</v>
+      </c>
+      <c r="C53" s="4">
+        <v>19638</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>39256.995549444953</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="13"/>
+        <v>350.18086030321706</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="11"/>
+        <v>10.577884937888482</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="11"/>
+        <v>5.8584497647408753</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="15"/>
+        <v>8.4993305475933951</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="16"/>
+        <v>1.32851921714748</v>
+      </c>
+      <c r="Q53" s="5">
+        <f t="shared" si="5"/>
+        <v>350.18086030321706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>2032</v>
+      </c>
+      <c r="B54" s="4">
+        <v>793879790.60000002</v>
+      </c>
+      <c r="C54" s="4">
+        <v>19731</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>40235.152328822667</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="13"/>
+        <v>359.33699625150598</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="11"/>
+        <v>10.602496328551013</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="11"/>
+        <v>5.884260656398709</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <f t="shared" si="15"/>
+        <v>8.5191057999907382</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3345548564079714</v>
+      </c>
+      <c r="Q54" s="5">
+        <f t="shared" si="5"/>
+        <v>359.33699625150598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>2033</v>
+      </c>
+      <c r="B55" s="4">
+        <v>816823611.29999995</v>
+      </c>
+      <c r="C55" s="4">
+        <v>19820</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>41212.089369323912</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="13"/>
+        <v>368.49119627250292</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="11"/>
+        <v>10.626486923589345</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="11"/>
+        <v>5.9094168206316642</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <f t="shared" si="15"/>
+        <v>8.5383822431040386</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3404345775276258</v>
+      </c>
+      <c r="Q55" s="5">
+        <f t="shared" si="5"/>
+        <v>368.49119627250292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>2034</v>
+      </c>
+      <c r="B56" s="4">
+        <v>839806564</v>
+      </c>
+      <c r="C56" s="4">
+        <v>19903</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>42194.97382304175</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="13"/>
+        <v>377.69442169651217</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="11"/>
+        <v>10.650056389211302</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="11"/>
+        <v>5.9340854604711737</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="15"/>
+        <v>8.5573203087312812</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3461651517398932</v>
+      </c>
+      <c r="Q56" s="5">
+        <f t="shared" si="5"/>
+        <v>377.69442169651217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>2035</v>
+      </c>
+      <c r="B57" s="4">
+        <v>862870339.5</v>
+      </c>
+      <c r="C57" s="4">
+        <v>19983</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>43180.220162137819</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="13"/>
+        <v>386.93274500660294</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="11"/>
+        <v>10.673137802762096</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="11"/>
+        <v>5.958250892414676</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" si="15"/>
+        <v>8.5758662245193431</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3517846678953334</v>
+      </c>
+      <c r="Q57" s="5">
+        <f t="shared" si="5"/>
+        <v>386.93274500660294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>2036</v>
+      </c>
+      <c r="B58" s="4">
+        <v>886049881.10000002</v>
+      </c>
+      <c r="C58" s="4">
+        <v>20059</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>44172.186105987341</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="13"/>
+        <v>396.23422254404778</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="11"/>
+        <v>10.69585059636985</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="11"/>
+        <v>5.982005507475237</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="15"/>
+        <v>8.5941159541831738</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3572895532920632</v>
+      </c>
+      <c r="Q58" s="5">
+        <f t="shared" si="5"/>
+        <v>396.23422254404778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>2037</v>
+      </c>
+      <c r="B59" s="4">
+        <v>909375170.5</v>
+      </c>
+      <c r="C59" s="4">
+        <v>20131</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="0"/>
+        <v>45172.876185981819</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="13"/>
+        <v>405.61986098789959</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="11"/>
+        <v>10.718252101316695</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="11"/>
+        <v>6.0054164180108236</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="15"/>
+        <v>8.6121155634079649</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3627008546028589</v>
+      </c>
+      <c r="Q59" s="5">
+        <f t="shared" si="5"/>
+        <v>405.61986098789959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B60" s="4">
+        <v>932865120.60000002</v>
+      </c>
+      <c r="C60" s="4">
+        <v>20199</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="0"/>
+        <v>46183.72793702659</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="13"/>
+        <v>415.10497686460673</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="11"/>
+        <v>10.740382805874349</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="11"/>
+        <v>6.0285314445429048</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" si="15"/>
+        <v>8.6298975845200392</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3680338600228656</v>
+      </c>
+      <c r="Q60" s="5">
+        <f t="shared" si="5"/>
+        <v>415.10497686460673</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>2039</v>
+      </c>
+      <c r="B61" s="4">
+        <v>956523449.89999998</v>
+      </c>
+      <c r="C61" s="4">
+        <v>20263</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="0"/>
+        <v>47205.421206139268</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="13"/>
+        <v>424.69811716198421</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="11"/>
+        <v>10.762264021040467</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="11"/>
+        <v>6.0513786039728883</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="15"/>
+        <v>8.6474791409060145</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3732994630668738</v>
+      </c>
+      <c r="Q61" s="5">
+        <f t="shared" si="5"/>
+        <v>424.69811716198421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>2040</v>
+      </c>
+      <c r="B62" s="4">
+        <v>980341788.29999995</v>
+      </c>
+      <c r="C62" s="4">
+        <v>20322</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="0"/>
+        <v>48240.418674343076</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="13"/>
+        <v>434.41916590405981</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="11"/>
+        <v>10.783952510350616</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="11"/>
+        <v>6.0740098880517435</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N62" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="shared" si="15"/>
+        <v>8.6649058420667195</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" si="16"/>
+        <v>1.378504045985024</v>
+      </c>
+      <c r="Q62" s="5">
+        <f t="shared" si="5"/>
+        <v>434.41916590405981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>2041</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1004308061</v>
+      </c>
+      <c r="C63" s="4">
+        <v>20378</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="0"/>
+        <v>49283.936647364804</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="13"/>
+        <v>444.23822986945817</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="11"/>
+        <v>10.805353478283234</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="11"/>
+        <v>6.0963609722987657</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <f t="shared" si="15"/>
+        <v>8.6821015198005789</v>
+      </c>
+      <c r="P63" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3836594524981871</v>
+      </c>
+      <c r="Q63" s="5">
+        <f t="shared" si="5"/>
+        <v>444.23822986945817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>2042</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1028412733</v>
+      </c>
+      <c r="C64" s="4">
+        <v>20431</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="0"/>
+        <v>50335.898047085313</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="13"/>
+        <v>454.14780741441677</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="11"/>
+        <v>10.826473780408666</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="11"/>
+        <v>6.1184227120480221</v>
+      </c>
+      <c r="M64" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N64" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <f t="shared" si="15"/>
+        <v>8.6990716825583636</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3887510294896588</v>
+      </c>
+      <c r="Q64" s="5">
+        <f t="shared" si="5"/>
+        <v>454.14780741441677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>2043</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1052638806</v>
+      </c>
+      <c r="C65" s="4">
+        <v>20479</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="0"/>
+        <v>51400.889008252358</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="13"/>
+        <v>464.17945278964498</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="11"/>
+        <v>10.847410747174081</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="11"/>
+        <v>6.1402712291589143</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="15"/>
+        <v>8.7158945353543746</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3937766938045395</v>
+      </c>
+      <c r="Q65" s="5">
+        <f t="shared" si="5"/>
+        <v>464.17945278964498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>2044</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1076959404</v>
+      </c>
+      <c r="C66" s="4">
+        <v>20523</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="0"/>
+        <v>52475.729864054963</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="13"/>
+        <v>474.31753377976116</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="11"/>
+        <v>10.86810605338782</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="11"/>
+        <v>6.161876999899512</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="15"/>
+        <v>8.7325232138971121</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3987537860024006</v>
+      </c>
+      <c r="Q66" s="5">
+        <f t="shared" si="5"/>
+        <v>474.31753377976116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>2045</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1101337868</v>
+      </c>
+      <c r="C67" s="4">
+        <v>20562</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" ref="E67:E72" si="17">B67/C67</f>
+        <v>53561.806633595952</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="13"/>
+        <v>484.56853437253767</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="11"/>
+        <v>10.888591530259307</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="11"/>
+        <v>6.1832588751404609</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N67" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <f t="shared" si="15"/>
+        <v>8.7489832945633523</v>
+      </c>
+      <c r="P67" s="4">
+        <f t="shared" si="16"/>
+        <v>1.4036755805771088</v>
+      </c>
+      <c r="Q67" s="5">
+        <f t="shared" si="5"/>
+        <v>484.56853437253767</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>2046</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1125734717</v>
+      </c>
+      <c r="C68" s="4">
+        <v>20598</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="17"/>
+        <v>54652.622439071754</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="13"/>
+        <v>494.88676966762546</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="11"/>
+        <v>10.908752478529726</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2043289882556314</v>
+      </c>
+      <c r="M68" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N68" s="4">
+        <f t="shared" ref="N68:N72" si="18">$K$3*(A69-$A$2+1)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" ref="O68:O72" si="19">$K$4*G68</f>
+        <v>8.7651826164986346</v>
+      </c>
+      <c r="P68" s="4">
+        <f t="shared" ref="P68:P72" si="20">$K$5*H67</f>
+        <v>1.408546371756997</v>
+      </c>
+      <c r="Q68" s="5">
+        <f t="shared" ref="Q68:Q72" si="21">EXP(M68+N68+O68+P68)</f>
+        <v>494.88676966762546</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>2047</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1150114767</v>
+      </c>
+      <c r="C69" s="4">
+        <v>20630</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="17"/>
+        <v>55749.625157537565</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="13"/>
+        <v>505.27210550213101</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="11"/>
+        <v>10.928625965668148</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2250971069389891</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" ref="M69:M73" si="22">$K$6</f>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N69" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="19"/>
+        <v>8.7811509634143565</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="20"/>
+        <v>1.4133461435246328</v>
+      </c>
+      <c r="Q69" s="5">
+        <f t="shared" si="21"/>
+        <v>505.27210550213101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1174440897</v>
+      </c>
+      <c r="C70" s="4">
+        <v>20657</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="17"/>
+        <v>56854.378515757373</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="13"/>
+        <v>515.73589483239823</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="11"/>
+        <v>10.948248514959722</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="11"/>
+        <v>6.245594802730837</v>
+      </c>
+      <c r="M70" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N70" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" si="19"/>
+        <v>8.796917681770136</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" si="20"/>
+        <v>1.4180771209607017</v>
+      </c>
+      <c r="Q70" s="5">
+        <f t="shared" si="21"/>
+        <v>515.73589483239823</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>2049</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1198676569</v>
+      </c>
+      <c r="C71" s="4">
+        <v>20682</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="17"/>
+        <v>57957.478435354416</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="13"/>
+        <v>526.21219048894363</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="11"/>
+        <v>10.967464890232103</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2657045353635796</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N71" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="19"/>
+        <v>8.8123580393014951</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" si="20"/>
+        <v>1.4227464960620846</v>
+      </c>
+      <c r="Q71" s="5">
+        <f t="shared" si="21"/>
+        <v>526.21219048894363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>2050</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1222783525</v>
+      </c>
+      <c r="C72" s="4">
+        <v>20702</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="17"/>
+        <v>59065.961018259106</v>
+      </c>
+      <c r="F72" s="1">
+        <f>Q72</f>
+        <v>536.73688043337427</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="11"/>
+        <v>10.986410081770178</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2855079938581611</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9693999999999998</v>
+      </c>
+      <c r="N72" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="19"/>
+        <v>8.8275805007023376</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="20"/>
+        <v>1.4273274931558235</v>
+      </c>
+      <c r="Q72" s="5">
+        <f>EXP(M72+N72+O72+P72)</f>
+        <v>536.73688043337427</v>
       </c>
     </row>
   </sheetData>

--- a/industry/04_CHL_modeled.xlsx
+++ b/industry/04_CHL_modeled.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\python_regressions\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{06527DF4-FD9D-4E37-9692-18036A4178AF}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{84598463-2783-4A8C-A3C2-D8082D7423BA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{2D493D90-50A9-46D5-80B5-1D445B5FBB02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2D493D90-50A9-46D5-80B5-1D445B5FBB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Existing" sheetId="1" r:id="rId1"/>
     <sheet name="Python" sheetId="3" r:id="rId2"/>
+    <sheet name="Python (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -1780,6 +1781,764 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-85FF-4A9F-A426-FDAFAC8B2ED5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1657312160"/>
+        <c:axId val="1361030544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1657312160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361030544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1361030544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657312160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Python (2)'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RESULT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Python (2)'!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Python (2)'!$Q$2:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="1">
+                  <c:v>58.982175877233985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.946634654039237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.126511173215796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.235313349404912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.083679650618222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.241091955782835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.048924601734932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.412813361093832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.007333178477964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.950088638995453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85.968687796307776</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.231731423192031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.996593039032362</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102.50728169263802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110.20246727767761</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.18066332511175</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.27168618270025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127.01400917364495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>124.85716197733746</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>130.00228625847294</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132.765229357122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135.37916367301119</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139.41436048349192</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>148.00024576805359</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>154.95389479208285</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>163.16128183248892</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>169.49856283724142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>173.77019890362067</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>169.26247909132223</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>177.58234064463369</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>186.8516111867323</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>195.16104164994937</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>201.39283803040024</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>203.22788942007614</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>206.22438850343511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7AA-433C-BE45-8D5FA25C8691}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Python (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steel_pc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Python (2)'!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Python (2)'!$F$3:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>63.797303686089514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.974760132426553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.438498391295539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.736818689974221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.079326328241784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.337596612056544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.341047882995852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.575437608048489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.801262473059026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.231082917988218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.045478189789705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.33245556287031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>115.75307930562559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.92832304307714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117.71700356718192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148.9170920126914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157.94487921061585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.72036004567744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.20859587451085</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129.52892616130512</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>147.49109744253803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145.29859822057225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>144.9367088607595</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168.39864780267936</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175.88406515142131</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>169.74079294074392</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>167.66721241889516</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>180.36132284976892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.46562481430864</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>161.12516918731242</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>183.52474785751764</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>199.71114962449451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>177.80450094485482</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>172.0790280458726</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180.99420142993864</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>177.107761027359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7AA-433C-BE45-8D5FA25C8691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2051,6 +2810,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3638,6 +4437,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3678,16 +4993,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3719,16 +5034,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>193674</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>193674</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3736,6 +5051,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BDA1E4-71A1-4924-8EA2-311ED0C7665D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1C8985-DED1-40AE-AB7F-16297D2B467B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4055,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C1C46-2ED4-4D31-87F8-7CA3A12C1392}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4162,11 +5520,11 @@
         <v>63.797303686089514</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G38" si="2">LN(E3)</f>
+        <f t="shared" ref="G3:H41" si="2">LN(E3)</f>
         <v>8.8456202975994618</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H38" si="3">LN(F3)</f>
+        <f t="shared" ref="H3:H40" si="3">LN(F3)</f>
         <v>4.1557109274841633</v>
       </c>
       <c r="I3" s="2">
@@ -4240,7 +5598,7 @@
         <v>1.9353920149674917</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M38" si="6">$K$6</f>
+        <f t="shared" ref="M4:M67" si="6">$K$6</f>
         <v>-12.74484397016621</v>
       </c>
       <c r="N4">
@@ -4248,7 +5606,7 @@
         <v>-0.11303349234187518</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O38" si="8">$K$4*G4</f>
+        <f t="shared" ref="O4:O67" si="8">$K$4*G4</f>
         <v>16.878440744957391</v>
       </c>
       <c r="P4">
@@ -5084,7 +6442,7 @@
         <v>-0.15240069514555496</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" ref="Q19:Q38" si="10">EXP(M19+N19+O19+P19)</f>
+        <f t="shared" ref="Q19:Q71" si="10">EXP(M19+N19+O19+P19)</f>
         <v>140.42908802042061</v>
       </c>
     </row>
@@ -6112,6 +7470,1604 @@
       <c r="Q38" s="1">
         <f t="shared" si="10"/>
         <v>182.88091007725623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="4">
+        <v>433123906.60000002</v>
+      </c>
+      <c r="C39" s="4">
+        <v>17910</v>
+      </c>
+      <c r="E39" s="5">
+        <f>B39/C39</f>
+        <v>24183.356035734228</v>
+      </c>
+      <c r="F39" s="1">
+        <f>Q39</f>
+        <v>174.64642618481639</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="2"/>
+        <v>10.093419908406053</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1627635083169743</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" ref="N39:N72" si="11">$K$3*(A40-$A$2+1)</f>
+        <v>-1.4694354004443773</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="8"/>
+        <v>19.534724294442988</v>
+      </c>
+      <c r="P39" s="4">
+        <f>$K$5*H38</f>
+        <v>-0.15768141551542714</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="10"/>
+        <v>174.64642618481639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="4">
+        <v>457489274.69999999</v>
+      </c>
+      <c r="C40" s="4">
+        <v>18055</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" ref="E40:E72" si="12">B40/C40</f>
+        <v>25338.647172528385</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40:F71" si="13">Q40</f>
+        <v>184.16447817074376</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="2"/>
+        <v>10.140086065414806</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2158292614174115</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.5071132312250024</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="8"/>
+        <v>19.625041602086945</v>
+      </c>
+      <c r="P40" s="4">
+        <f>$K$5*H39</f>
+        <v>-0.15725513927832163</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="10"/>
+        <v>184.16447817074376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="4">
+        <v>482243933.10000002</v>
+      </c>
+      <c r="C41" s="4">
+        <v>18197</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="12"/>
+        <v>26501.28774523273</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="13"/>
+        <v>193.12964047211818</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="2"/>
+        <v>10.184948604953382</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2633616756979267</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.5447910620056275</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="8"/>
+        <v>19.711868202881071</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" ref="P41:P72" si="14">$K$5*H40</f>
+        <v>-0.15887149501130746</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="10"/>
+        <v>193.12964047211818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="4">
+        <v>507191163.80000001</v>
+      </c>
+      <c r="C42" s="4">
+        <v>18336</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="12"/>
+        <v>27660.949160122163</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="13"/>
+        <v>201.76943015726417</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" ref="G42:H72" si="15">LN(E42)</f>
+        <v>10.227776919891099</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="15"/>
+        <v>5.3071256106032605</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.5824688927862525</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="8"/>
+        <v>19.794757781626039</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16031930807031664</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="10"/>
+        <v>201.76943015726417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="4">
+        <v>532183277.89999998</v>
+      </c>
+      <c r="C43" s="4">
+        <v>18472</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="12"/>
+        <v>28810.268400822864</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="13"/>
+        <v>209.95747199884048</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="15"/>
+        <v>10.26848714427339</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="15"/>
+        <v>5.3469049959174448</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.6201467235668776</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="8"/>
+        <v>19.873548024823062</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16165233517253019</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="10"/>
+        <v>209.95747199884048</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="4">
+        <v>557093007.39999998</v>
+      </c>
+      <c r="C44" s="4">
+        <v>18605</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="12"/>
+        <v>29943.18771298038</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="13"/>
+        <v>217.60109191437761</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="15"/>
+        <v>10.307057122345512</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="15"/>
+        <v>5.3826635329580652</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.6578245543475028</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="8"/>
+        <v>19.948196052401318</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16286399492954032</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" si="10"/>
+        <v>217.60109191437761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="4">
+        <v>581818868.79999995</v>
+      </c>
+      <c r="C45" s="4">
+        <v>18734</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="12"/>
+        <v>31056.841507419664</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="13"/>
+        <v>224.65631957446311</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="15"/>
+        <v>10.343574401493894</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="15"/>
+        <v>5.4145717658770751</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.6955023851281277</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="8"/>
+        <v>20.018871302873436</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16395318170202236</v>
+      </c>
+      <c r="Q45" s="5">
+        <f t="shared" si="10"/>
+        <v>224.65631957446311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B46" s="4">
+        <v>606298879.70000005</v>
+      </c>
+      <c r="C46" s="4">
+        <v>18859</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="12"/>
+        <v>32149.047123389366</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="13"/>
+        <v>231.09209595109471</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="15"/>
+        <v>10.378138090762754</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="15"/>
+        <v>5.4428163148395088</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.7331802159087528</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="8"/>
+        <v>20.085765591092201</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16492509017772933</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="10"/>
+        <v>231.09209595109471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="4">
+        <v>630504357.39999998</v>
+      </c>
+      <c r="C47" s="4">
+        <v>18980</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="12"/>
+        <v>33219.40766069547</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="13"/>
+        <v>236.90639053786208</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="15"/>
+        <v>10.410889552204447</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="15"/>
+        <v>5.4676650864778216</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.7708580466893777</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" si="8"/>
+        <v>20.14915250804497</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.165785404711561</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" si="10"/>
+        <v>236.90639053786208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B48" s="4">
+        <v>654435100.89999998</v>
+      </c>
+      <c r="C48" s="4">
+        <v>19099</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="12"/>
+        <v>34265.411848787895</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="13"/>
+        <v>242.07115927199007</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="15"/>
+        <v>10.441891723465796</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="15"/>
+        <v>5.4892317295119355</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.8085358774700029</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="8"/>
+        <v>20.209153862750842</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16654228560269288</v>
+      </c>
+      <c r="Q48" s="5">
+        <f t="shared" si="10"/>
+        <v>242.07115927199007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>2027</v>
+      </c>
+      <c r="B49" s="4">
+        <v>678110765.70000005</v>
+      </c>
+      <c r="C49" s="4">
+        <v>19214</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="12"/>
+        <v>35292.534906838766</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="13"/>
+        <v>246.67183112684938</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="15"/>
+        <v>10.471426744830296</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5080588343116705</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.846213708250628</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="8"/>
+        <v>20.26631570726159</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16719919453308102</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="10"/>
+        <v>246.67183112684938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B50" s="4">
+        <v>701559225.70000005</v>
+      </c>
+      <c r="C50" s="4">
+        <v>19327</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="12"/>
+        <v>36299.437351891138</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="13"/>
+        <v>250.69864932425139</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="15"/>
+        <v>10.499557520184915</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5242516175320695</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.8838915390312529</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="8"/>
+        <v>20.320759785257763</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16777265852823023</v>
+      </c>
+      <c r="Q50" s="5">
+        <f t="shared" si="10"/>
+        <v>250.69864932425139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>2029</v>
+      </c>
+      <c r="B51" s="4">
+        <v>724816238.89999998</v>
+      </c>
+      <c r="C51" s="4">
+        <v>19435</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="12"/>
+        <v>37294.378127090298</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="13"/>
+        <v>254.27446318530562</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="15"/>
+        <v>10.526597873819094</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5384142473514553</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.9215693698118781</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="8"/>
+        <v>20.373093469763251</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16826588243370746</v>
+      </c>
+      <c r="Q51" s="5">
+        <f t="shared" si="10"/>
+        <v>254.27446318530562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>2030</v>
+      </c>
+      <c r="B52" s="4">
+        <v>747923988.60000002</v>
+      </c>
+      <c r="C52" s="4">
+        <v>19538</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="12"/>
+        <v>38280.478482956292</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="13"/>
+        <v>257.44699841500204</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="15"/>
+        <v>10.552695345043533</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5508138675195511</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.959247200592503</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="8"/>
+        <v>20.423602307181874</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16869726890361006</v>
+      </c>
+      <c r="Q52" s="5">
+        <f t="shared" si="10"/>
+        <v>257.44699841500204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>2031</v>
+      </c>
+      <c r="B53" s="4">
+        <v>770928878.60000002</v>
+      </c>
+      <c r="C53" s="4">
+        <v>19638</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="12"/>
+        <v>39256.995549444953</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="13"/>
+        <v>260.21548793348325</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="15"/>
+        <v>10.577884937888482</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5615100874948382</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="11"/>
+        <v>-1.9969250313731282</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="8"/>
+        <v>20.472354044034272</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.1690749550000952</v>
+      </c>
+      <c r="Q53" s="5">
+        <f t="shared" si="10"/>
+        <v>260.21548793348325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>2032</v>
+      </c>
+      <c r="B54" s="4">
+        <v>793879790.60000002</v>
+      </c>
+      <c r="C54" s="4">
+        <v>19731</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="12"/>
+        <v>40235.152328822667</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="13"/>
+        <v>262.7332198825298</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="15"/>
+        <v>10.602496328551013</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5711391442829941</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.0346028621537533</v>
+      </c>
+      <c r="O54" s="4">
+        <f t="shared" si="8"/>
+        <v>20.519986732999776</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.1694007563968192</v>
+      </c>
+      <c r="Q54" s="5">
+        <f t="shared" si="10"/>
+        <v>262.7332198825298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>2033</v>
+      </c>
+      <c r="B55" s="4">
+        <v>816823611.29999995</v>
+      </c>
+      <c r="C55" s="4">
+        <v>19820</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="12"/>
+        <v>41212.089369323912</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="13"/>
+        <v>264.9653925806291</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="15"/>
+        <v>10.626486923589345</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5795992234227167</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.0722806929343784</v>
+      </c>
+      <c r="O55" s="4">
+        <f t="shared" si="8"/>
+        <v>20.566417939071286</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16969405254797953</v>
+      </c>
+      <c r="Q55" s="5">
+        <f t="shared" si="10"/>
+        <v>264.9653925806291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>2034</v>
+      </c>
+      <c r="B56" s="4">
+        <v>839806564</v>
+      </c>
+      <c r="C56" s="4">
+        <v>19903</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="12"/>
+        <v>42194.97382304175</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="13"/>
+        <v>267.00833056053233</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="15"/>
+        <v>10.650056389211302</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5872798585147656</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.1099585237150036</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="8"/>
+        <v>20.612034094633071</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.16995174223709264</v>
+      </c>
+      <c r="Q56" s="5">
+        <f t="shared" si="10"/>
+        <v>267.00833056053233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>2035</v>
+      </c>
+      <c r="B57" s="4">
+        <v>862870339.5</v>
+      </c>
+      <c r="C57" s="4">
+        <v>19983</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="12"/>
+        <v>43180.220162137819</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="13"/>
+        <v>268.81936890545154</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="15"/>
+        <v>10.673137802762096</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="15"/>
+        <v>5.5940396629929419</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.1476363544956283</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" si="8"/>
+        <v>20.65670567811344</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17018569045866047</v>
+      </c>
+      <c r="Q57" s="5">
+        <f t="shared" si="10"/>
+        <v>268.81936890545154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>2036</v>
+      </c>
+      <c r="B58" s="4">
+        <v>886049881.10000002</v>
+      </c>
+      <c r="C58" s="4">
+        <v>20059</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="12"/>
+        <v>44172.186105987341</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="13"/>
+        <v>270.45726251556363</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="15"/>
+        <v>10.69585059636985</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6001140914069296</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.1853141852762534</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="8"/>
+        <v>20.700663837499491</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17039159065009812</v>
+      </c>
+      <c r="Q58" s="5">
+        <f t="shared" si="10"/>
+        <v>270.45726251556363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>2037</v>
+      </c>
+      <c r="B59" s="4">
+        <v>909375170.5</v>
+      </c>
+      <c r="C59" s="4">
+        <v>20131</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="12"/>
+        <v>45172.876185981819</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="13"/>
+        <v>271.94692822464231</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="15"/>
+        <v>10.718252101316695</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6056069304370659</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.2229920160568786</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="8"/>
+        <v>20.744019531296871</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17057661463671672</v>
+      </c>
+      <c r="Q59" s="5">
+        <f t="shared" si="10"/>
+        <v>271.94692822464231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B60" s="4">
+        <v>932865120.60000002</v>
+      </c>
+      <c r="C60" s="4">
+        <v>20199</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="12"/>
+        <v>46183.72793702659</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="13"/>
+        <v>273.3063642848918</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="15"/>
+        <v>10.740382805874349</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6105933794718599</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.2606698468375037</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" si="8"/>
+        <v>20.786851120183357</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17074392370778418</v>
+      </c>
+      <c r="Q60" s="5">
+        <f t="shared" si="10"/>
+        <v>273.3063642848918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>2039</v>
+      </c>
+      <c r="B61" s="4">
+        <v>956523449.89999998</v>
+      </c>
+      <c r="C61" s="4">
+        <v>20263</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="12"/>
+        <v>47205.421206139268</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="13"/>
+        <v>274.54423434201328</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="15"/>
+        <v>10.762264021040467</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6151123931110476</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.2983476776181289</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="8"/>
+        <v>20.829199849293648</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17089580839826199</v>
+      </c>
+      <c r="Q61" s="5">
+        <f t="shared" si="10"/>
+        <v>274.54423434201328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>2040</v>
+      </c>
+      <c r="B62" s="4">
+        <v>980341788.29999995</v>
+      </c>
+      <c r="C62" s="4">
+        <v>20322</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="12"/>
+        <v>48240.418674343076</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="13"/>
+        <v>275.68878653889811</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="15"/>
+        <v>10.783952510350616</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="15"/>
+        <v>5.619272644510894</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N62" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.3360255083987536</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="shared" si="8"/>
+        <v>20.871175578321218</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17103345524535973</v>
+      </c>
+      <c r="Q62" s="5">
+        <f t="shared" si="10"/>
+        <v>275.68878653889811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>2041</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1004308061</v>
+      </c>
+      <c r="C63" s="4">
+        <v>20378</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="12"/>
+        <v>49283.936647364804</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="13"/>
+        <v>276.68712551886512</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="15"/>
+        <v>10.805353478283234</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6228873570470892</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.3737033391793787</v>
+      </c>
+      <c r="O63" s="4">
+        <f t="shared" si="8"/>
+        <v>20.912594840770584</v>
+      </c>
+      <c r="P63" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17116017437790604</v>
+      </c>
+      <c r="Q63" s="5">
+        <f t="shared" si="10"/>
+        <v>276.68712551886512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>2042</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1028412733</v>
+      </c>
+      <c r="C64" s="4">
+        <v>20431</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="12"/>
+        <v>50335.898047085313</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="13"/>
+        <v>277.54289229089329</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="15"/>
+        <v>10.826473780408666</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6259754880562998</v>
+      </c>
+      <c r="M64" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N64" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.4113811699600038</v>
+      </c>
+      <c r="O64" s="4">
+        <f t="shared" si="8"/>
+        <v>20.953470904857845</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.1712702766753316</v>
+      </c>
+      <c r="Q64" s="5">
+        <f t="shared" si="10"/>
+        <v>277.54289229089329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>2043</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1052638806</v>
+      </c>
+      <c r="C65" s="4">
+        <v>20479</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="12"/>
+        <v>51400.889008252358</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="13"/>
+        <v>278.30700326999056</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="15"/>
+        <v>10.847410747174081</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6287248326780013</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.449059000740629</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="8"/>
+        <v>20.993992143153267</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17136433956842764</v>
+      </c>
+      <c r="Q65" s="5">
+        <f t="shared" si="10"/>
+        <v>278.30700326999056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>2044</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1076959404</v>
+      </c>
+      <c r="C66" s="4">
+        <v>20523</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="12"/>
+        <v>52475.729864054963</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="13"/>
+        <v>278.94560221118263</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="15"/>
+        <v>10.86810605338782</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6310167886579672</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.4867368315212541</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="8"/>
+        <v>21.034045673546647</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17144808320121527</v>
+      </c>
+      <c r="Q66" s="5">
+        <f t="shared" si="10"/>
+        <v>278.94560221118263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>2045</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1101337868</v>
+      </c>
+      <c r="C67" s="4">
+        <v>20562</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="12"/>
+        <v>53561.806633595952</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="13"/>
+        <v>279.47604279930846</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="15"/>
+        <v>10.888591530259307</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6329165744288217</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" si="6"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N67" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.5244146623018788</v>
+      </c>
+      <c r="O67" s="4">
+        <f t="shared" si="8"/>
+        <v>21.073693101906525</v>
+      </c>
+      <c r="P67" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17151789500961376</v>
+      </c>
+      <c r="Q67" s="5">
+        <f t="shared" si="10"/>
+        <v>279.47604279930846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>2046</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1125734717</v>
+      </c>
+      <c r="C68" s="4">
+        <v>20598</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="12"/>
+        <v>54652.622439071754</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="13"/>
+        <v>279.83502005938152</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="15"/>
+        <v>10.908752478529726</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6342002154407833</v>
+      </c>
+      <c r="M68" s="4">
+        <f t="shared" ref="M68:M72" si="16">$K$6</f>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N68" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.562092493082504</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" ref="O68:O72" si="17">$K$4*G68</f>
+        <v>21.112712440203264</v>
+      </c>
+      <c r="P68" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17157576151376669</v>
+      </c>
+      <c r="Q68" s="5">
+        <f t="shared" si="10"/>
+        <v>279.83502005938152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>2047</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1150114767</v>
+      </c>
+      <c r="C69" s="4">
+        <v>20630</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="12"/>
+        <v>55749.625157537565</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="13"/>
+        <v>280.04387124900109</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="15"/>
+        <v>10.928625965668148</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6349462739278922</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" si="16"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N69" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.5997703238631291</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="17"/>
+        <v>21.151175428520528</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17161486056329592</v>
+      </c>
+      <c r="Q69" s="5">
+        <f t="shared" si="10"/>
+        <v>280.04387124900109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1174440897</v>
+      </c>
+      <c r="C70" s="4">
+        <v>20657</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="12"/>
+        <v>56854.378515757373</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="13"/>
+        <v>280.12138968205687</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="15"/>
+        <v>10.948248514959722</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6352230437990611</v>
+      </c>
+      <c r="M70" s="4">
+        <f t="shared" si="16"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N70" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.6374481546437543</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" si="17"/>
+        <v>21.189152753732746</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17163758512372002</v>
+      </c>
+      <c r="Q70" s="5">
+        <f t="shared" si="10"/>
+        <v>280.12138968205687</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>2049</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1198676569</v>
+      </c>
+      <c r="C71" s="4">
+        <v>20682</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="12"/>
+        <v>57957.478435354416</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="13"/>
+        <v>279.98275220618712</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="15"/>
+        <v>10.967464890232103</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="15"/>
+        <v>5.6347280020083197</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="16"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N71" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.6751259854243794</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="17"/>
+        <v>21.226343972991529</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17164601539261934</v>
+      </c>
+      <c r="Q71" s="5">
+        <f t="shared" si="10"/>
+        <v>279.98275220618712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>2050</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1222783525</v>
+      </c>
+      <c r="C72" s="4">
+        <v>20702</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="12"/>
+        <v>59065.961018259106</v>
+      </c>
+      <c r="F72" s="1">
+        <f>Q72</f>
+        <v>1.018060356485172E+36</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="15"/>
+        <v>10.986410081770178</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="15"/>
+        <v>82.910962553434601</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="16"/>
+        <v>-12.74484397016621</v>
+      </c>
+      <c r="N72" s="4">
+        <f t="shared" si="11"/>
+        <v>74.564427114856997</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="17"/>
+        <v>21.263010345416347</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.17163093667254506</v>
+      </c>
+      <c r="Q72" s="5">
+        <f>EXP(M72+N72+O72+P72)</f>
+        <v>1.018060356485172E+36</v>
       </c>
     </row>
   </sheetData>
@@ -6125,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94E8DB2-2BF2-42B2-8F97-809AA7D65676}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6228,7 +9184,7 @@
         <v>6943.9100150874547</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F38" si="1">D3/C3</f>
+        <f t="shared" ref="F3:F37" si="1">D3/C3</f>
         <v>63.797303686089514</v>
       </c>
       <c r="G3" s="2">
@@ -8219,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" ref="O38:O43" si="12">$K$4*G39</f>
+        <f t="shared" ref="O39:O43" si="12">$K$4*G39</f>
         <v>8.1100628964042638</v>
       </c>
       <c r="P39" s="4">
@@ -8246,7 +11202,7 @@
         <v>25338.647172528385</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ref="F40:F72" si="13">Q40</f>
+        <f t="shared" ref="F40:F71" si="13">Q40</f>
         <v>219.21190286753588</v>
       </c>
       <c r="G40" s="6">
@@ -9590,7 +12546,7 @@
         <v>1.408546371756997</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" ref="Q68:Q72" si="21">EXP(M68+N68+O68+P68)</f>
+        <f t="shared" ref="Q68:Q71" si="21">EXP(M68+N68+O68+P68)</f>
         <v>494.88676966762546</v>
       </c>
     </row>
@@ -9621,7 +12577,7 @@
         <v>6.2250971069389891</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" ref="M69:M73" si="22">$K$6</f>
+        <f t="shared" ref="M69:M72" si="22">$K$6</f>
         <v>-3.9693999999999998</v>
       </c>
       <c r="N69" s="4">
@@ -9780,6 +12736,3674 @@
       <c r="Q72" s="5">
         <f>EXP(M72+N72+O72+P72)</f>
         <v>536.73688043337427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5478EF7C-A316-43C0-BEF3-2630B6B5F1E3}">
+  <dimension ref="A1:Q72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2">
+        <v>75244937.469999999</v>
+      </c>
+      <c r="C2">
+        <v>11178.816989999999</v>
+      </c>
+      <c r="D2">
+        <v>809000</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2/C2</f>
+        <v>6731.0286533280123</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2/C2</f>
+        <v>72.369017287221908</v>
+      </c>
+      <c r="G2" s="2">
+        <f>LN(E2)</f>
+        <v>8.8144832569215765</v>
+      </c>
+      <c r="H2" s="2">
+        <f>LN(F2)</f>
+        <v>4.2817782697782674</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3">
+        <v>78802559.989999995</v>
+      </c>
+      <c r="C3">
+        <v>11348.441989999999</v>
+      </c>
+      <c r="D3">
+        <v>724000</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E66" si="0">B3/C3</f>
+        <v>6943.9100150874547</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F37" si="1">D3/C3</f>
+        <v>63.797303686089514</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:H40" si="2">LN(E3)</f>
+        <v>8.8456202975994618</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1557109274841633</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H2</f>
+        <v>4.2817782697782674</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>$K$6</f>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N3">
+        <f>$K$3*(A4-$A$2+1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>$K$4*G3</f>
+        <v>9.0116134044874858</v>
+      </c>
+      <c r="P3">
+        <f>$K$5*H2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>EXP(M3+N3+O3+P3)</f>
+        <v>58.982175877233985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4">
+        <v>70661594.540000007</v>
+      </c>
+      <c r="C4">
+        <v>11527.27403</v>
+      </c>
+      <c r="D4">
+        <v>334000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>6129.9483603930603</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>28.974760132426553</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>8.720941604815339</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3664251107593333</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I38" si="3">H3</f>
+        <v>4.1557109274841633</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>1.01876557</v>
+      </c>
+      <c r="M4">
+        <f>$K$6</f>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N66" si="4">$K$3*(A5-$A$2+1)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>$K$4*G4</f>
+        <v>8.8845950449664137</v>
+      </c>
+      <c r="P4">
+        <f>$K$5*H3</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q67" si="5">EXP(M4+N4+O4+P4)</f>
+        <v>51.946634654039237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1983</v>
+      </c>
+      <c r="B5">
+        <v>67980358.790000007</v>
+      </c>
+      <c r="C5">
+        <v>11714.44195</v>
+      </c>
+      <c r="D5">
+        <v>462000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>5803.1239627253435</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>39.438498391295539</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6661516657969031</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6747424557666166</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3664251107593333</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M68" si="6">$K$6</f>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O37" si="7">$K$4*G5</f>
+        <v>8.8287769415120323</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P68" si="8">$K$5*H4</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="5"/>
+        <v>49.126511173215796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1984</v>
+      </c>
+      <c r="B6">
+        <v>73394748.439999998</v>
+      </c>
+      <c r="C6">
+        <v>11908.188920000001</v>
+      </c>
+      <c r="D6">
+        <v>628000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>6163.3846198671154</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>52.736818689974221</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7263813569116113</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9653138584757861</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6747424557666166</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>8.8901368771114306</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="5"/>
+        <v>52.235313349404912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1985</v>
+      </c>
+      <c r="B7">
+        <v>78613636.430000007</v>
+      </c>
+      <c r="C7">
+        <v>12107.22507</v>
+      </c>
+      <c r="D7">
+        <v>570000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>6493.1176198907488</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>47.079326328241784</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7784980672205499</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8518339732039264</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9653138584757861</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>1980</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>8.9432315871958412</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="5"/>
+        <v>55.083679650618222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8">
+        <v>83006565.659999996</v>
+      </c>
+      <c r="C8">
+        <v>12310.6659</v>
+      </c>
+      <c r="D8">
+        <v>632000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>6742.6544050716211</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>51.337596612056544</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>8.8162089550218479</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9384233611812043</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8518339732039264</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>8.9816501413019374</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="5"/>
+        <v>57.241091955782835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1987</v>
+      </c>
+      <c r="B9">
+        <v>88473324.849999994</v>
+      </c>
+      <c r="C9">
+        <v>12518.92993</v>
+      </c>
+      <c r="D9">
+        <v>818000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>7067.1635151487735</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>65.341047882995852</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>8.8632144782679188</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1796204434333051</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9384233611812043</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>9.0295377499848684</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="5"/>
+        <v>60.048924601734932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1988</v>
+      </c>
+      <c r="B10">
+        <v>94934831.269999996</v>
+      </c>
+      <c r="C10">
+        <v>12733.40897</v>
+      </c>
+      <c r="D10">
+        <v>1026000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>7455.5707347236794</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>80.575437608048489</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9167167815754773</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>4.3891938587515806</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1796204434333051</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>9.0840440545103061</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="5"/>
+        <v>63.412813361093832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11">
+        <v>104953435.5</v>
+      </c>
+      <c r="C11">
+        <v>12956.087960000001</v>
+      </c>
+      <c r="D11">
+        <v>1008000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>8100.7041495880667</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>77.801262473059026</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9997062689300673</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>4.354157658212829</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3891938587515806</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>9.1685908868991142</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="5"/>
+        <v>69.007333178477964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12">
+        <v>125464694.3</v>
+      </c>
+      <c r="C12">
+        <v>13242</v>
+      </c>
+      <c r="D12">
+        <v>930000</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>9474.7541383476819</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>70.231082917988218</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1563860811546132</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2517909896446469</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>4.354157658212829</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>9.3282108851075467</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="5"/>
+        <v>80.950088638995453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1991</v>
+      </c>
+      <c r="B13">
+        <v>135256451.09999999</v>
+      </c>
+      <c r="C13">
+        <v>13457</v>
+      </c>
+      <c r="D13">
+        <v>1131000</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>10051.010708181615</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>84.045478189789705</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2154284764088725</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4313580593567163</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2517909896446469</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>9.3883612445629172</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="5"/>
+        <v>85.968687796307776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14">
+        <v>150360143.69999999</v>
+      </c>
+      <c r="C14">
+        <v>13671</v>
+      </c>
+      <c r="D14">
+        <v>1440000</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>10998.474412991001</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>105.33245556287031</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3055118524341065</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6571215916201911</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4313580593567163</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>9.4801350864867882</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="5"/>
+        <v>94.231731423192031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15">
+        <v>160267048.5</v>
+      </c>
+      <c r="C15">
+        <v>13883</v>
+      </c>
+      <c r="D15">
+        <v>1607000</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>11544.12219981272</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>115.75307930562559</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3539316859670425</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7514592956848469</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6571215916201911</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>9.5294635457952754</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="5"/>
+        <v>98.996593039032362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16">
+        <v>168328798.30000001</v>
+      </c>
+      <c r="C16">
+        <v>14091</v>
+      </c>
+      <c r="D16">
+        <v>1549000</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>11945.837648144206</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>109.92832304307714</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3881381827214305</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6998285447039008</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7514592956848469</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>9.5643119469589628</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="5"/>
+        <v>102.50728169263802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17">
+        <v>183366107.90000001</v>
+      </c>
+      <c r="C17">
+        <v>14297</v>
+      </c>
+      <c r="D17">
+        <v>1683000</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>12825.495411624817</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>117.71700356718192</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>9.4591902978796352</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7682834691437792</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6998285447039008</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>9.6366973955578157</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="5"/>
+        <v>110.20246727767761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18">
+        <v>195840351.30000001</v>
+      </c>
+      <c r="C18">
+        <v>14498</v>
+      </c>
+      <c r="D18">
+        <v>2159000</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>13508.09430955994</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>148.9170920126914</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5110443632370778</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0033897216361209</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7682834691437792</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>9.6895245320085088</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="5"/>
+        <v>116.18066332511175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19">
+        <v>210387156.80000001</v>
+      </c>
+      <c r="C19">
+        <v>14695</v>
+      </c>
+      <c r="D19">
+        <v>2321000</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>14316.921184076216</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>157.94487921061585</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5691974162865883</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0622461064035562</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0033897216361209</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>9.7487688602457343</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="5"/>
+        <v>123.27168618270025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20">
+        <v>219485516.69999999</v>
+      </c>
+      <c r="C20">
+        <v>14887</v>
+      </c>
+      <c r="D20">
+        <v>2214000</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>14743.434990259957</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>148.72036004567744</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5985531772819517</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0020677643736624</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0622461064035562</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>9.7786754988289584</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="5"/>
+        <v>127.01400917364495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21">
+        <v>218581025.30000001</v>
+      </c>
+      <c r="C21">
+        <v>15077</v>
+      </c>
+      <c r="D21">
+        <v>1737000</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>14497.647098229092</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>115.20859587451085</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5817416461539633</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7467443624443231</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0020677643736624</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>9.7615484897367804</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="5"/>
+        <v>124.85716197733746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>230224701.90000001</v>
+      </c>
+      <c r="C22">
+        <v>15263</v>
+      </c>
+      <c r="D22">
+        <v>1977000</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>15083.843405621437</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>129.52892616130512</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6213794768354592</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8639042242376318</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7467443624443231</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>9.8019301469045779</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="5"/>
+        <v>130.00228625847294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>237829132.69999999</v>
+      </c>
+      <c r="C23">
+        <v>15445</v>
+      </c>
+      <c r="D23">
+        <v>2278000</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>15398.454690838458</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>147.49109744253803</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6420224386160989</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9937678176365825</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8639042242376318</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>9.8229604856295207</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="5"/>
+        <v>132.765229357122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24">
+        <v>245218413.80000001</v>
+      </c>
+      <c r="C24">
+        <v>15623</v>
+      </c>
+      <c r="D24">
+        <v>2270000</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>15695.987569608911</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>145.29859822057225</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6611603898584058</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9787909230456826</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>4.9937678176365825</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>9.8424575714355207</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="5"/>
+        <v>135.37916367301119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25">
+        <v>255250416</v>
+      </c>
+      <c r="C25">
+        <v>15800</v>
+      </c>
+      <c r="D25">
+        <v>2290000</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>16155.089620253164</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>144.9367088607595</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6899904257673928</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>4.976297156515364</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.9787909230456826</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>9.8718286194014606</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="5"/>
+        <v>139.41436048349192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26">
+        <v>273652796.10000002</v>
+      </c>
+      <c r="C26">
+        <v>15974</v>
+      </c>
+      <c r="D26">
+        <v>2690000</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>17131.137855264806</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>168.39864780267936</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7486530138211211</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>5.126334072100688</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>4.976297156515364</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>9.9315920443576928</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="5"/>
+        <v>148.00024576805359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27">
+        <v>289368212.30000001</v>
+      </c>
+      <c r="C27">
+        <v>16147</v>
+      </c>
+      <c r="D27">
+        <v>2840000</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>17920.865318635042</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>175.88406515142131</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7937209732333592</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1698250572557676</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>5.126334072100688</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>9.9775057297170378</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="5"/>
+        <v>154.95389479208285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28">
+        <v>307648112.60000002</v>
+      </c>
+      <c r="C28">
+        <v>16319</v>
+      </c>
+      <c r="D28">
+        <v>2770000</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>18852.142447453891</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>169.74079294074392</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8443818441074722</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1342725260325865</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1698250572557676</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>10.0291172807098</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="5"/>
+        <v>163.16128183248892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29">
+        <v>322739250.80000001</v>
+      </c>
+      <c r="C29">
+        <v>16491</v>
+      </c>
+      <c r="D29">
+        <v>2765000</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>19570.629482748165</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>167.66721241889516</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8817852255727736</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1219811364098025</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1342725260325865</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>10.067222557948226</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="5"/>
+        <v>169.49856283724142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30">
+        <v>334130431.30000001</v>
+      </c>
+      <c r="C30">
+        <v>16661</v>
+      </c>
+      <c r="D30">
+        <v>3005000</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>20054.644457115421</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>180.36132284976892</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9062160496558498</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1949621880223766</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1219811364098025</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>10.092111840370791</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="5"/>
+        <v>173.77019890362067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31">
+        <v>328903831.30000001</v>
+      </c>
+      <c r="C31">
+        <v>16829</v>
+      </c>
+      <c r="D31">
+        <v>1960000</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>19543.872559272684</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>116.46562481430864</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8804170922077965</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="2"/>
+        <v>4.757596163493627</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1949621880223766</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>10.065828750780819</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="5"/>
+        <v>169.26247909132223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32">
+        <v>348125554.30000001</v>
+      </c>
+      <c r="C32">
+        <v>16993</v>
+      </c>
+      <c r="D32">
+        <v>2738000</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>20486.409362678751</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>161.12516918731242</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9275169873546147</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0821815112964259</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>4.757596163493627</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>10.113812502307008</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="5"/>
+        <v>177.58234064463369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33">
+        <v>369399224.39999998</v>
+      </c>
+      <c r="C33">
+        <v>17153</v>
+      </c>
+      <c r="D33">
+        <v>3148000</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>21535.546225150119</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>183.52474785751764</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9774601616963778</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2123495241096061</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0821815112964259</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>10.164692888782902</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="5"/>
+        <v>186.8516111867323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34">
+        <v>389046195</v>
+      </c>
+      <c r="C34">
+        <v>17310</v>
+      </c>
+      <c r="D34">
+        <v>3457000</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>22475.227902946273</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>199.71114962449451</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>10.020168999575228</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2968720707335066</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2123495241096061</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>10.208203182348587</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="5"/>
+        <v>195.16104164994937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35">
+        <v>404783130.30000001</v>
+      </c>
+      <c r="C35">
+        <v>17463</v>
+      </c>
+      <c r="D35">
+        <v>3105000</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>23179.472616388939</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>177.80450094485482</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>10.051022364969214</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="2"/>
+        <v>5.180684637409871</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2968720707335066</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>10.239635528730609</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="5"/>
+        <v>201.39283803040024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36">
+        <v>411934594.89999998</v>
+      </c>
+      <c r="C36">
+        <v>17614</v>
+      </c>
+      <c r="D36">
+        <v>3031000</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>23386.771596457362</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>172.0790280458726</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>10.059925825103523</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1479538366745352</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>5.180684637409871</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>10.24870606736931</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="5"/>
+        <v>203.22788942007614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>421430746.5</v>
+      </c>
+      <c r="C37">
+        <v>17763</v>
+      </c>
+      <c r="D37">
+        <v>3215000</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>23725.20106400946</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>180.99420142993864</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>10.074293098216062</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1984649944539711</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1479538366745352</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>10.263342950551152</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="5"/>
+        <v>206.22438850343511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38">
+        <v>426765501.80000001</v>
+      </c>
+      <c r="C38">
+        <v>17910</v>
+      </c>
+      <c r="D38">
+        <v>3172000</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>23828.336225572308</v>
+      </c>
+      <c r="F38" s="1">
+        <f>D38/C38</f>
+        <v>177.107761027359</v>
+      </c>
+      <c r="G38" s="2">
+        <f>LN(E38)</f>
+        <v>10.078630749173296</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>5.176758366682118</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1984649944539711</v>
+      </c>
+      <c r="M38">
+        <f>$K$6</f>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>$K$4*G38</f>
+        <v>10.26776200000106</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="5"/>
+        <v>207.1377208180445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="4">
+        <v>433123906.60000002</v>
+      </c>
+      <c r="C39" s="4">
+        <v>17910</v>
+      </c>
+      <c r="E39" s="5">
+        <f>B39/C39</f>
+        <v>24183.356035734228</v>
+      </c>
+      <c r="F39" s="1">
+        <f>Q39</f>
+        <v>210.28222903982683</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" ref="G39:H72" si="9">LN(E39)</f>
+        <v>10.093419908406053</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3484505762366412</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" ref="O39:O72" si="10">$K$4*G39</f>
+        <v>10.282828686236641</v>
+      </c>
+      <c r="P39" s="4">
+        <f>$K$5*H38</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="5"/>
+        <v>210.28222903982683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="4">
+        <v>457489274.69999999</v>
+      </c>
+      <c r="C40" s="4">
+        <v>18055</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>25338.647172528385</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40:F71" si="11">Q40</f>
+        <v>220.52089455440114</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="9"/>
+        <v>10.140086065414806</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3959924502813719</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="10"/>
+        <v>10.330370560281372</v>
+      </c>
+      <c r="P40" s="4">
+        <f>$K$5*H39</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="5"/>
+        <v>220.52089455440114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="4">
+        <v>482243933.10000002</v>
+      </c>
+      <c r="C41" s="4">
+        <v>18197</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>26501.28774523273</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="11"/>
+        <v>230.83354375016677</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="9"/>
+        <v>10.184948604953382</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="9"/>
+        <v>5.4416968609460374</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="10"/>
+        <v>10.376074970946037</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="5"/>
+        <v>230.83354375016677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="4">
+        <v>507191163.80000001</v>
+      </c>
+      <c r="C42" s="4">
+        <v>18336</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>27660.949160122163</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="11"/>
+        <v>241.12823167530942</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="9"/>
+        <v>10.227776919891099</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="9"/>
+        <v>5.4853288736256998</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="10"/>
+        <v>10.4197069836257</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="5"/>
+        <v>241.12823167530942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="4">
+        <v>532183277.89999998</v>
+      </c>
+      <c r="C43" s="4">
+        <v>18472</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>28810.268400822864</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="11"/>
+        <v>251.33910633365522</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="9"/>
+        <v>10.26848714427339</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="9"/>
+        <v>5.5268030485733535</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="10"/>
+        <v>10.461181158573353</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="5"/>
+        <v>251.33910633365522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="4">
+        <v>557093007.39999998</v>
+      </c>
+      <c r="C44" s="4">
+        <v>18605</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>29943.18771298038</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="11"/>
+        <v>261.41176668361436</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="9"/>
+        <v>10.307057122345512</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="9"/>
+        <v>5.566096814268886</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="10"/>
+        <v>10.500474924268886</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" si="5"/>
+        <v>261.41176668361436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="4">
+        <v>581818868.79999995</v>
+      </c>
+      <c r="C45" s="4">
+        <v>18734</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>31056.841507419664</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="11"/>
+        <v>271.32011528320248</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="9"/>
+        <v>10.343574401493894</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="9"/>
+        <v>5.6032993609753357</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="10"/>
+        <v>10.537677470975336</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <f t="shared" si="5"/>
+        <v>271.32011528320248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B46" s="4">
+        <v>606298879.70000005</v>
+      </c>
+      <c r="C46" s="4">
+        <v>18859</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>32149.047123389366</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="11"/>
+        <v>281.04411715853485</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="9"/>
+        <v>10.378138090762754</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="9"/>
+        <v>5.6385116575746279</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="10"/>
+        <v>10.572889767574628</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="5"/>
+        <v>281.04411715853485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="4">
+        <v>630504357.39999998</v>
+      </c>
+      <c r="C47" s="4">
+        <v>18980</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>33219.40766069547</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="11"/>
+        <v>290.57964933274684</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="9"/>
+        <v>10.410889552204447</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="9"/>
+        <v>5.6718777188586076</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" si="10"/>
+        <v>10.606255828858608</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" si="5"/>
+        <v>290.57964933274684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B48" s="4">
+        <v>654435100.89999998</v>
+      </c>
+      <c r="C48" s="4">
+        <v>19099</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>34265.411848787895</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="11"/>
+        <v>299.90377209992948</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="9"/>
+        <v>10.441891723465796</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="9"/>
+        <v>5.703461663534914</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="10"/>
+        <v>10.637839773534914</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="5">
+        <f t="shared" si="5"/>
+        <v>299.90377209992948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>2027</v>
+      </c>
+      <c r="B49" s="4">
+        <v>678110765.70000005</v>
+      </c>
+      <c r="C49" s="4">
+        <v>19214</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>35292.534906838766</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="11"/>
+        <v>309.06478849057419</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="9"/>
+        <v>10.471426744830296</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="9"/>
+        <v>5.733550926410282</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="10"/>
+        <v>10.667929036410282</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="5"/>
+        <v>309.06478849057419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B50" s="4">
+        <v>701559225.70000005</v>
+      </c>
+      <c r="C50" s="4">
+        <v>19327</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>36299.437351891138</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="11"/>
+        <v>318.05031444797163</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="9"/>
+        <v>10.499557520184915</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="9"/>
+        <v>5.762209591798972</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="10"/>
+        <v>10.696587701798972</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="5">
+        <f t="shared" si="5"/>
+        <v>318.05031444797163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>2029</v>
+      </c>
+      <c r="B51" s="4">
+        <v>724816238.89999998</v>
+      </c>
+      <c r="C51" s="4">
+        <v>19435</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>37294.378127090298</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="11"/>
+        <v>326.93369183824643</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="9"/>
+        <v>10.526597873819094</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="9"/>
+        <v>5.7897573730820975</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="10"/>
+        <v>10.724135483082097</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="5">
+        <f t="shared" si="5"/>
+        <v>326.93369183824643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>2030</v>
+      </c>
+      <c r="B52" s="4">
+        <v>747923988.60000002</v>
+      </c>
+      <c r="C52" s="4">
+        <v>19538</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>38280.478482956292</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="11"/>
+        <v>335.74252723708355</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="9"/>
+        <v>10.552695345043533</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="9"/>
+        <v>5.8163445782296224</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="10"/>
+        <v>10.750722688229622</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="5">
+        <f t="shared" si="5"/>
+        <v>335.74252723708355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>2031</v>
+      </c>
+      <c r="B53" s="4">
+        <v>770928878.60000002</v>
+      </c>
+      <c r="C53" s="4">
+        <v>19638</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>39256.995549444953</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="11"/>
+        <v>344.46995322413744</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="9"/>
+        <v>10.577884937888482</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="9"/>
+        <v>5.8420068681423745</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="10"/>
+        <v>10.776384978142374</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="5">
+        <f t="shared" si="5"/>
+        <v>344.46995322413744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>2032</v>
+      </c>
+      <c r="B54" s="4">
+        <v>793879790.60000002</v>
+      </c>
+      <c r="C54" s="4">
+        <v>19731</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>40235.152328822667</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="11"/>
+        <v>353.21611930301344</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="9"/>
+        <v>10.602496328551013</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="9"/>
+        <v>5.8670801055791797</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <f t="shared" si="10"/>
+        <v>10.80145821557918</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
+        <f t="shared" si="5"/>
+        <v>353.21611930301344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>2033</v>
+      </c>
+      <c r="B55" s="4">
+        <v>816823611.29999995</v>
+      </c>
+      <c r="C55" s="4">
+        <v>19820</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>41212.089369323912</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="11"/>
+        <v>361.95536307781902</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="9"/>
+        <v>10.626486923589345</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="9"/>
+        <v>5.8915208978080456</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <f t="shared" si="10"/>
+        <v>10.825899007808045</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="5">
+        <f t="shared" si="5"/>
+        <v>361.95536307781902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>2034</v>
+      </c>
+      <c r="B56" s="4">
+        <v>839806564</v>
+      </c>
+      <c r="C56" s="4">
+        <v>19903</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>42194.97382304175</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="11"/>
+        <v>370.75173395321906</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="9"/>
+        <v>10.650056389211302</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9155326578869944</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="10"/>
+        <v>10.849910767886994</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <f t="shared" si="5"/>
+        <v>370.75173395321906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>2035</v>
+      </c>
+      <c r="B57" s="4">
+        <v>862870339.5</v>
+      </c>
+      <c r="C57" s="4">
+        <v>19983</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>43180.220162137819</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="11"/>
+        <v>379.57310271854737</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="9"/>
+        <v>10.673137802762096</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9390472073194749</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" si="10"/>
+        <v>10.873425317319475</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5">
+        <f t="shared" si="5"/>
+        <v>379.57310271854737</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>2036</v>
+      </c>
+      <c r="B58" s="4">
+        <v>886049881.10000002</v>
+      </c>
+      <c r="C58" s="4">
+        <v>20059</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>44172.186105987341</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="11"/>
+        <v>388.45845200613746</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="9"/>
+        <v>10.69585059636985</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9621862194455693</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="10"/>
+        <v>10.896564329445569</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="5">
+        <f t="shared" si="5"/>
+        <v>388.45845200613746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>2037</v>
+      </c>
+      <c r="B59" s="4">
+        <v>909375170.5</v>
+      </c>
+      <c r="C59" s="4">
+        <v>20131</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="0"/>
+        <v>45172.876185981819</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="11"/>
+        <v>397.4257409418438</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="9"/>
+        <v>10.718252101316695</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9850081014016014</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="10"/>
+        <v>10.919386211401601</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <f t="shared" si="5"/>
+        <v>397.4257409418438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B60" s="4">
+        <v>932865120.60000002</v>
+      </c>
+      <c r="C60" s="4">
+        <v>20199</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="0"/>
+        <v>46183.72793702659</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="11"/>
+        <v>406.48787520326493</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="9"/>
+        <v>10.740382805874349</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="9"/>
+        <v>6.0075541012447813</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" si="10"/>
+        <v>10.941932211244781</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
+        <f t="shared" si="5"/>
+        <v>406.48787520326493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>2039</v>
+      </c>
+      <c r="B61" s="4">
+        <v>956523449.89999998</v>
+      </c>
+      <c r="C61" s="4">
+        <v>20263</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="0"/>
+        <v>47205.421206139268</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="11"/>
+        <v>415.6509850537127</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="9"/>
+        <v>10.762264021040467</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="9"/>
+        <v>6.0298459298857834</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="10"/>
+        <v>10.964224039885783</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
+        <f t="shared" si="5"/>
+        <v>415.6509850537127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>2040</v>
+      </c>
+      <c r="B62" s="4">
+        <v>980341788.29999995</v>
+      </c>
+      <c r="C62" s="4">
+        <v>20322</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="0"/>
+        <v>48240.418674343076</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="11"/>
+        <v>424.93720967157992</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="9"/>
+        <v>10.783952510350616</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="9"/>
+        <v>6.0519414160602762</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="shared" si="10"/>
+        <v>10.986319526060276</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
+        <f t="shared" si="5"/>
+        <v>424.93720967157992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>2041</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1004308061</v>
+      </c>
+      <c r="C63" s="4">
+        <v>20378</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="0"/>
+        <v>49283.936647364804</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="11"/>
+        <v>434.30366803247779</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="9"/>
+        <v>10.805353478283234</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="9"/>
+        <v>6.0737439853547022</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <f t="shared" si="10"/>
+        <v>11.008122095354702</v>
+      </c>
+      <c r="P63" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
+        <f t="shared" si="5"/>
+        <v>434.30366803247779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>2042</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1028412733</v>
+      </c>
+      <c r="C64" s="4">
+        <v>20431</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="0"/>
+        <v>50335.898047085313</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="11"/>
+        <v>443.74968103193328</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="9"/>
+        <v>10.826473780408666</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="9"/>
+        <v>6.09526062198809</v>
+      </c>
+      <c r="M64" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <f t="shared" si="10"/>
+        <v>11.02963873198809</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
+        <f t="shared" si="5"/>
+        <v>443.74968103193328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>2043</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1052638806</v>
+      </c>
+      <c r="C65" s="4">
+        <v>20479</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="0"/>
+        <v>51400.889008252358</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="11"/>
+        <v>453.31646638626745</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="9"/>
+        <v>10.847410747174081</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1165904828689284</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="10"/>
+        <v>11.050968592868928</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
+        <f t="shared" si="5"/>
+        <v>453.31646638626745</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>2044</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1076959404</v>
+      </c>
+      <c r="C66" s="4">
+        <v>20523</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="0"/>
+        <v>52475.729864054963</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="11"/>
+        <v>462.97550526897834</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="9"/>
+        <v>10.86810605338782</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1376741483000918</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="10"/>
+        <v>11.072052258300092</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5">
+        <f t="shared" si="5"/>
+        <v>462.97550526897834</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>2045</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1101337868</v>
+      </c>
+      <c r="C67" s="4">
+        <v>20562</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" ref="E67:E72" si="12">B67/C67</f>
+        <v>53561.806633595952</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="11"/>
+        <v>472.73928726752541</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="9"/>
+        <v>10.888591530259307</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1585440468217945</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N67" s="4">
+        <f t="shared" ref="N67:N72" si="13">$K$3*(A68-$A$2+1)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <f t="shared" si="10"/>
+        <v>11.092922156821794</v>
+      </c>
+      <c r="P67" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5">
+        <f t="shared" si="5"/>
+        <v>472.73928726752541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>2046</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1125734717</v>
+      </c>
+      <c r="C68" s="4">
+        <v>20598</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="12"/>
+        <v>54652.622439071754</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="11"/>
+        <v>482.5494134246901</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="9"/>
+        <v>10.908752478529726</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1790833267782483</v>
+      </c>
+      <c r="M68" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N68" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" si="10"/>
+        <v>11.113461436778248</v>
+      </c>
+      <c r="P68" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5">
+        <f t="shared" ref="Q68:Q71" si="14">EXP(M68+N68+O68+P68)</f>
+        <v>482.5494134246901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>2047</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1150114767</v>
+      </c>
+      <c r="C69" s="4">
+        <v>20630</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="12"/>
+        <v>55749.625157537565</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="11"/>
+        <v>492.4188873098384</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="9"/>
+        <v>10.928625965668148</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1993297512307111</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" ref="M69:M72" si="15">$K$6</f>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N69" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="10"/>
+        <v>11.133707861230711</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" ref="P69:P72" si="16">$K$5*H68</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="5">
+        <f t="shared" si="14"/>
+        <v>492.4188873098384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1174440897</v>
+      </c>
+      <c r="C70" s="4">
+        <v>20657</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="12"/>
+        <v>56854.378515757373</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="11"/>
+        <v>502.36177569235241</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="9"/>
+        <v>10.948248514959722</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2193205288445954</v>
+      </c>
+      <c r="M70" s="4">
+        <f t="shared" si="15"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N70" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" si="10"/>
+        <v>11.153698638844595</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="5">
+        <f t="shared" si="14"/>
+        <v>502.36177569235241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>2049</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1198676569</v>
+      </c>
+      <c r="C71" s="4">
+        <v>20682</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="12"/>
+        <v>57957.478435354416</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="11"/>
+        <v>512.29340131477511</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="9"/>
+        <v>10.967464890232103</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2388975103522961</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="15"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N71" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="10"/>
+        <v>11.173275620352296</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="5">
+        <f t="shared" si="14"/>
+        <v>512.29340131477511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>2050</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1222783525</v>
+      </c>
+      <c r="C72" s="4">
+        <v>20702</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="12"/>
+        <v>59065.961018259106</v>
+      </c>
+      <c r="F72" s="1">
+        <f>Q72</f>
+        <v>522.27706305468371</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="9"/>
+        <v>10.986410081770178</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2581982192083414</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="15"/>
+        <v>-4.9343781099999999</v>
+      </c>
+      <c r="N72" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="10"/>
+        <v>11.192576329208341</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="5">
+        <f>EXP(M72+N72+O72+P72)</f>
+        <v>522.27706305468371</v>
       </c>
     </row>
   </sheetData>

--- a/industry/04_CHL_modeled.xlsx
+++ b/industry/04_CHL_modeled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\python_regressions\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{84598463-2783-4A8C-A3C2-D8082D7423BA}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{AF80C55E-F81A-403F-B7F7-530D6B6E481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F206B2DF-1E22-44CA-9718-03DF276D6D6A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2D493D90-50A9-46D5-80B5-1D445B5FBB02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{2D493D90-50A9-46D5-80B5-1D445B5FBB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Existing" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -148,6 +154,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2151,109 +2160,109 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="1">
-                  <c:v>58.982175877233985</c:v>
+                  <c:v>63.088684354770258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.946634654039237</c:v>
+                  <c:v>47.71682078747088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.126511173215796</c:v>
+                  <c:v>41.285017514048725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.235313349404912</c:v>
+                  <c:v>44.568393174943751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.083679650618222</c:v>
+                  <c:v>47.367673324130052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.241091955782835</c:v>
+                  <c:v>48.966519078132471</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.048924601734932</c:v>
+                  <c:v>51.532743181796107</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.412813361093832</c:v>
+                  <c:v>54.91565610959772</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.007333178477964</c:v>
+                  <c:v>61.936888627814511</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.950088638995453</c:v>
+                  <c:v>80.497099612716113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.968687796307776</c:v>
+                  <c:v>86.70069912017027</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.231731423192031</c:v>
+                  <c:v>99.129668531236064</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.996593039032362</c:v>
+                  <c:v>104.60911294314998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.50728169263802</c:v>
+                  <c:v>107.41336794707857</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110.20246727767761</c:v>
+                  <c:v>118.39581447981526</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.18066332511175</c:v>
+                  <c:v>125.7685206121693</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123.27168618270025</c:v>
+                  <c:v>135.22941234696927</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.01400917364495</c:v>
+                  <c:v>137.56456169024659</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>124.85716197733746</c:v>
+                  <c:v>128.04520859394074</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>130.00228625847294</c:v>
+                  <c:v>132.85891975881754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132.765229357122</c:v>
+                  <c:v>132.90627099764239</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>135.37916367301119</c:v>
+                  <c:v>132.56918955859277</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>139.41436048349192</c:v>
+                  <c:v>134.7220551017777</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>148.00024576805359</c:v>
+                  <c:v>144.99855983943399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>154.95389479208285</c:v>
+                  <c:v>152.02976948113135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>163.16128183248892</c:v>
+                  <c:v>161.12657447389446</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>169.49856283724142</c:v>
+                  <c:v>166.46670858344885</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>173.77019890362067</c:v>
+                  <c:v>167.74415237025335</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>169.26247909132223</c:v>
+                  <c:v>153.45958337231784</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>177.58234064463369</c:v>
+                  <c:v>161.53138016498812</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>186.8516111867323</c:v>
+                  <c:v>170.96047438059438</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>195.16104164994937</c:v>
+                  <c:v>178.43880921716504</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>201.39283803040024</c:v>
+                  <c:v>182.04391355066736</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>203.22788942007614</c:v>
+                  <c:v>178.04142947684159</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>206.22438850343511</c:v>
+                  <c:v>175.96718738681673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5415,8 +5424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C1C46-2ED4-4D31-87F8-7CA3A12C1392}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12749,8 +12758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5478EF7C-A316-43C0-BEF3-2630B6B5F1E3}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12870,20 +12879,20 @@
       <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="K3" s="7">
+        <v>-3.9362840000000003E-2</v>
       </c>
       <c r="M3">
         <f>$K$6</f>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N3">
         <f>$K$3*(A4-$A$2+1)</f>
-        <v>0</v>
+        <v>-0.11808852</v>
       </c>
       <c r="O3">
         <f>$K$4*G3</f>
-        <v>9.0116134044874858</v>
+        <v>17.019882074698334</v>
       </c>
       <c r="P3">
         <f>$K$5*H2</f>
@@ -12891,7 +12900,7 @@
       </c>
       <c r="Q3" s="1">
         <f>EXP(M3+N3+O3+P3)</f>
-        <v>58.982175877233985</v>
+        <v>63.088684354770258</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -12930,20 +12939,20 @@
       <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4">
-        <v>1.01876557</v>
+      <c r="K4" s="7">
+        <v>1.92410272</v>
       </c>
       <c r="M4">
         <f>$K$6</f>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N66" si="4">$K$3*(A5-$A$2+1)</f>
-        <v>0</v>
+        <v>-0.15745136000000001</v>
       </c>
       <c r="O4">
         <f>$K$4*G4</f>
-        <v>8.8845950449664137</v>
+        <v>16.779987462786359</v>
       </c>
       <c r="P4">
         <f>$K$5*H3</f>
@@ -12951,7 +12960,7 @@
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4:Q67" si="5">EXP(M4+N4+O4+P4)</f>
-        <v>51.946634654039237</v>
+        <v>47.71682078747088</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -12990,20 +12999,20 @@
       <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M68" si="6">$K$6</f>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.19681420000000002</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O37" si="7">$K$4*G5</f>
-        <v>8.8287769415120323</v>
+        <v>16.674565992092354</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P68" si="8">$K$5*H4</f>
@@ -13011,7 +13020,7 @@
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="5"/>
-        <v>49.126511173215796</v>
+        <v>41.285017514048725</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -13050,20 +13059,20 @@
       <c r="J6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K6">
-        <v>-4.9343781099999999</v>
+      <c r="K6" s="7">
+        <v>-12.757252129999999</v>
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.23617704</v>
       </c>
       <c r="O6">
         <f t="shared" si="7"/>
-        <v>8.8901368771114306</v>
+        <v>16.790454104590921</v>
       </c>
       <c r="P6">
         <f t="shared" si="8"/>
@@ -13071,7 +13080,7 @@
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="5"/>
-        <v>52.235313349404912</v>
+        <v>44.568393174943751</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -13115,15 +13124,15 @@
       </c>
       <c r="M7">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.27553988000000001</v>
       </c>
       <c r="O7">
         <f t="shared" si="7"/>
-        <v>8.9432315871958412</v>
+        <v>16.890732008653803</v>
       </c>
       <c r="P7">
         <f t="shared" si="8"/>
@@ -13131,7 +13140,7 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="5"/>
-        <v>55.083679650618222</v>
+        <v>47.367673324130052</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -13169,15 +13178,15 @@
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.31490272000000002</v>
       </c>
       <c r="O8">
         <f t="shared" si="7"/>
-        <v>8.9816501413019374</v>
+        <v>16.963291630445894</v>
       </c>
       <c r="P8">
         <f t="shared" si="8"/>
@@ -13185,7 +13194,7 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="5"/>
-        <v>57.241091955782835</v>
+        <v>48.966519078132471</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -13223,15 +13232,15 @@
       </c>
       <c r="M9">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.35426556000000003</v>
       </c>
       <c r="O9">
         <f t="shared" si="7"/>
-        <v>9.0295377499848684</v>
+        <v>17.053735085578683</v>
       </c>
       <c r="P9">
         <f t="shared" si="8"/>
@@ -13239,7 +13248,7 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="5"/>
-        <v>60.048924601734932</v>
+        <v>51.532743181796107</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -13277,15 +13286,15 @@
       </c>
       <c r="M10">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.39362840000000004</v>
       </c>
       <c r="O10">
         <f t="shared" si="7"/>
-        <v>9.0840440545103061</v>
+        <v>17.156679012899023</v>
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
@@ -13293,7 +13302,7 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="5"/>
-        <v>63.412813361093832</v>
+        <v>54.91565610959772</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -13331,15 +13340,15 @@
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.43299124000000005</v>
       </c>
       <c r="O11">
         <f t="shared" si="7"/>
-        <v>9.1685908868991142</v>
+        <v>17.316359311249393</v>
       </c>
       <c r="P11">
         <f t="shared" si="8"/>
@@ -13347,7 +13356,7 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>69.007333178477964</v>
+        <v>61.936888627814511</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -13385,15 +13394,15 @@
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.47235408000000001</v>
       </c>
       <c r="O12">
         <f t="shared" si="7"/>
-        <v>9.3282108851075467</v>
+        <v>17.617827364119734</v>
       </c>
       <c r="P12">
         <f t="shared" si="8"/>
@@ -13401,7 +13410,7 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="5"/>
-        <v>80.950088638995453</v>
+        <v>80.497099612716113</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -13439,15 +13448,15 @@
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.51171692000000002</v>
       </c>
       <c r="O13">
         <f t="shared" si="7"/>
-        <v>9.3883612445629172</v>
+        <v>17.731430997423768</v>
       </c>
       <c r="P13">
         <f t="shared" si="8"/>
@@ -13455,7 +13464,7 @@
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="5"/>
-        <v>85.968687796307776</v>
+        <v>86.70069912017027</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -13493,15 +13502,15 @@
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.55107976000000003</v>
       </c>
       <c r="O14">
         <f t="shared" si="7"/>
-        <v>9.4801350864867882</v>
+        <v>17.904760666260703</v>
       </c>
       <c r="P14">
         <f t="shared" si="8"/>
@@ -13509,7 +13518,7 @@
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="5"/>
-        <v>94.231731423192031</v>
+        <v>99.129668531236064</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -13547,15 +13556,15 @@
       </c>
       <c r="M15">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.59044260000000004</v>
       </c>
       <c r="O15">
         <f t="shared" si="7"/>
-        <v>9.5294635457952754</v>
+        <v>17.997925399663373</v>
       </c>
       <c r="P15">
         <f t="shared" si="8"/>
@@ -13563,7 +13572,7 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="5"/>
-        <v>98.996593039032362</v>
+        <v>104.60911294314998</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -13601,15 +13610,15 @@
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.62980544000000005</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
-        <v>9.5643119469589628</v>
+        <v>18.06374221311016</v>
       </c>
       <c r="P16">
         <f t="shared" si="8"/>
@@ -13617,7 +13626,7 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="5"/>
-        <v>102.50728169263802</v>
+        <v>107.41336794707857</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -13655,15 +13664,15 @@
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.66916828000000006</v>
       </c>
       <c r="O17">
         <f t="shared" si="7"/>
-        <v>9.6366973955578157</v>
+        <v>18.200453781147818</v>
       </c>
       <c r="P17">
         <f t="shared" si="8"/>
@@ -13671,7 +13680,7 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="5"/>
-        <v>110.20246727767761</v>
+        <v>118.39581447981526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -13709,15 +13718,15 @@
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.70853112000000007</v>
       </c>
       <c r="O18">
         <f t="shared" si="7"/>
-        <v>9.6895245320085088</v>
+        <v>18.300226329345129</v>
       </c>
       <c r="P18">
         <f t="shared" si="8"/>
@@ -13725,7 +13734,7 @@
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="5"/>
-        <v>116.18066332511175</v>
+        <v>125.7685206121693</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -13763,15 +13772,15 @@
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.74789396000000008</v>
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
-        <v>9.7487688602457343</v>
+        <v>18.412118776893998</v>
       </c>
       <c r="P19">
         <f t="shared" si="8"/>
@@ -13779,7 +13788,7 @@
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="5"/>
-        <v>123.27168618270025</v>
+        <v>135.22941234696927</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -13817,15 +13826,15 @@
       </c>
       <c r="M20">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.78725680000000009</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
-        <v>9.7786754988289584</v>
+        <v>18.468602276472847</v>
       </c>
       <c r="P20">
         <f t="shared" si="8"/>
@@ -13833,7 +13842,7 @@
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="5"/>
-        <v>127.01400917364495</v>
+        <v>137.56456169024659</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -13871,15 +13880,15 @@
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.8266196400000001</v>
       </c>
       <c r="O21">
         <f t="shared" si="7"/>
-        <v>9.7615484897367804</v>
+        <v>18.436255163702118</v>
       </c>
       <c r="P21">
         <f t="shared" si="8"/>
@@ -13887,7 +13896,7 @@
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="5"/>
-        <v>124.85716197733746</v>
+        <v>128.04520859394074</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -13925,15 +13934,15 @@
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.86598248000000011</v>
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
-        <v>9.8019301469045779</v>
+        <v>18.512522421531283</v>
       </c>
       <c r="P22">
         <f t="shared" si="8"/>
@@ -13941,7 +13950,7 @@
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="5"/>
-        <v>130.00228625847294</v>
+        <v>132.85891975881754</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -13979,15 +13988,15 @@
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.90534532000000012</v>
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
-        <v>9.8229604856295207</v>
+        <v>18.552241600442269</v>
       </c>
       <c r="P23">
         <f t="shared" si="8"/>
@@ -13995,7 +14004,7 @@
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="5"/>
-        <v>132.765229357122</v>
+        <v>132.90627099764239</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -14033,15 +14042,15 @@
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.94470816000000002</v>
       </c>
       <c r="O24">
         <f t="shared" si="7"/>
-        <v>9.8424575714355207</v>
+        <v>18.589064984482821</v>
       </c>
       <c r="P24">
         <f t="shared" si="8"/>
@@ -14049,7 +14058,7 @@
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="5"/>
-        <v>135.37916367301119</v>
+        <v>132.56918955859277</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -14087,15 +14096,15 @@
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.98407100000000003</v>
       </c>
       <c r="O25">
         <f t="shared" si="7"/>
-        <v>9.8718286194014606</v>
+        <v>18.644536934992999</v>
       </c>
       <c r="P25">
         <f t="shared" si="8"/>
@@ -14103,7 +14112,7 @@
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="5"/>
-        <v>139.41436048349192</v>
+        <v>134.7220551017777</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -14141,15 +14150,15 @@
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.02343384</v>
       </c>
       <c r="O26">
         <f t="shared" si="7"/>
-        <v>9.9315920443576928</v>
+        <v>18.757409780229416</v>
       </c>
       <c r="P26">
         <f t="shared" si="8"/>
@@ -14157,7 +14166,7 @@
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="5"/>
-        <v>148.00024576805359</v>
+        <v>144.99855983943399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -14195,15 +14204,15 @@
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.0627966800000002</v>
       </c>
       <c r="O27">
         <f t="shared" si="7"/>
-        <v>9.9775057297170378</v>
+        <v>18.844125163519355</v>
       </c>
       <c r="P27">
         <f t="shared" si="8"/>
@@ -14211,7 +14220,7 @@
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="5"/>
-        <v>154.95389479208285</v>
+        <v>152.02976948113135</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -14249,15 +14258,15 @@
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.1021595200000001</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>10.0291172807098</v>
+        <v>18.941601882965802</v>
       </c>
       <c r="P28">
         <f t="shared" si="8"/>
@@ -14265,7 +14274,7 @@
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="5"/>
-        <v>163.16128183248892</v>
+        <v>161.12657447389446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -14303,15 +14312,15 @@
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.1415223600000002</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>10.067222557948226</v>
+        <v>19.013569830980387</v>
       </c>
       <c r="P29">
         <f t="shared" si="8"/>
@@ -14319,7 +14328,7 @@
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="5"/>
-        <v>169.49856283724142</v>
+        <v>166.46670858344885</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -14357,15 +14366,15 @@
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.1808852000000001</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>10.092111840370791</v>
+        <v>19.060577246050475</v>
       </c>
       <c r="P30">
         <f t="shared" si="8"/>
@@ -14373,7 +14382,7 @@
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="5"/>
-        <v>173.77019890362067</v>
+        <v>167.74415237025335</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -14411,15 +14420,15 @@
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.2202480400000002</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>10.065828750780819</v>
+        <v>19.010937401851514</v>
       </c>
       <c r="P31">
         <f t="shared" si="8"/>
@@ -14427,7 +14436,7 @@
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="5"/>
-        <v>169.26247909132223</v>
+        <v>153.45958337231784</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -14465,15 +14474,15 @@
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.2596108800000001</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>10.113812502307008</v>
+        <v>19.101562438215222</v>
       </c>
       <c r="P32">
         <f t="shared" si="8"/>
@@ -14481,7 +14490,7 @@
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="5"/>
-        <v>177.58234064463369</v>
+        <v>161.53138016498812</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -14519,15 +14528,15 @@
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.29897372</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>10.164692888782902</v>
+        <v>19.197658235811641</v>
       </c>
       <c r="P33">
         <f t="shared" si="8"/>
@@ -14535,7 +14544,7 @@
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="5"/>
-        <v>186.8516111867323</v>
+        <v>170.96047438059438</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -14573,15 +14582,15 @@
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.3383365600000001</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>10.208203182348587</v>
+        <v>19.279834426942376</v>
       </c>
       <c r="P34">
         <f t="shared" si="8"/>
@@ -14589,7 +14598,7 @@
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="5"/>
-        <v>195.16104164994937</v>
+        <v>178.43880921716504</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -14627,15 +14636,15 @@
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.3776994</v>
       </c>
       <c r="O35">
         <f t="shared" si="7"/>
-        <v>10.239635528730609</v>
+        <v>19.339199471218098</v>
       </c>
       <c r="P35">
         <f t="shared" si="8"/>
@@ -14643,7 +14652,7 @@
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="5"/>
-        <v>201.39283803040024</v>
+        <v>182.04391355066736</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -14681,15 +14690,15 @@
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.4170622400000001</v>
       </c>
       <c r="O36">
         <f t="shared" si="7"/>
-        <v>10.24870606736931</v>
+        <v>19.356330643079932</v>
       </c>
       <c r="P36">
         <f t="shared" si="8"/>
@@ -14697,7 +14706,7 @@
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="5"/>
-        <v>203.22788942007614</v>
+        <v>178.04142947684159</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -14735,15 +14744,15 @@
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.45642508</v>
       </c>
       <c r="O37">
         <f t="shared" si="7"/>
-        <v>10.263342950551152</v>
+        <v>19.383974752354753</v>
       </c>
       <c r="P37">
         <f t="shared" si="8"/>
@@ -14751,7 +14760,7 @@
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="5"/>
-        <v>206.22438850343511</v>
+        <v>175.96718738681673</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -14789,15 +14798,15 @@
       </c>
       <c r="M38">
         <f>$K$6</f>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.4957879200000002</v>
       </c>
       <c r="O38">
         <f>$K$4*G38</f>
-        <v>10.26776200000106</v>
+        <v>19.392320838359979</v>
       </c>
       <c r="P38">
         <f t="shared" si="8"/>
@@ -14805,7 +14814,7 @@
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="5"/>
-        <v>207.1377208180445</v>
+        <v>170.59303169570663</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -14824,7 +14833,7 @@
       </c>
       <c r="F39" s="1">
         <f>Q39</f>
-        <v>210.28222903982683</v>
+        <v>168.74248743640027</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" ref="G39:H72" si="9">LN(E39)</f>
@@ -14832,19 +14841,19 @@
       </c>
       <c r="H39" s="2">
         <f t="shared" si="2"/>
-        <v>5.3484505762366412</v>
+        <v>5.1283738098662379</v>
       </c>
       <c r="M39" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N39" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.5351507600000001</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" ref="O39:O72" si="10">$K$4*G39</f>
-        <v>10.282828686236641</v>
+        <v>19.420776699866238</v>
       </c>
       <c r="P39" s="4">
         <f>$K$5*H38</f>
@@ -14852,7 +14861,7 @@
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="5"/>
-        <v>210.28222903982683</v>
+        <v>168.74248743640027</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -14871,7 +14880,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ref="F40:F71" si="11">Q40</f>
-        <v>220.52089455440114</v>
+        <v>177.46997674295781</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="9"/>
@@ -14879,19 +14888,19 @@
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>5.3959924502813719</v>
+        <v>5.1788014494987262</v>
       </c>
       <c r="M40" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N40" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.5745136000000002</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="10"/>
-        <v>10.330370560281372</v>
+        <v>19.510567179498725</v>
       </c>
       <c r="P40" s="4">
         <f>$K$5*H39</f>
@@ -14899,7 +14908,7 @@
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="5"/>
-        <v>220.52089455440114</v>
+        <v>177.46997674295781</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -14918,7 +14927,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="11"/>
-        <v>230.83354375016677</v>
+        <v>186.00224505918149</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="9"/>
@@ -14926,19 +14935,19 @@
       </c>
       <c r="H41" s="2">
         <f t="shared" si="9"/>
-        <v>5.4416968609460374</v>
+        <v>5.22575874385101</v>
       </c>
       <c r="M41" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N41" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6138764400000001</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="10"/>
-        <v>10.376074970946037</v>
+        <v>19.59688731385101</v>
       </c>
       <c r="P41" s="4">
         <f t="shared" si="8"/>
@@ -14946,7 +14955,7 @@
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="5"/>
-        <v>230.83354375016677</v>
+        <v>186.00224505918149</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -14965,7 +14974,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="11"/>
-        <v>241.12823167530942</v>
+        <v>194.18318791295482</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="9"/>
@@ -14973,19 +14982,19 @@
       </c>
       <c r="H42" s="2">
         <f t="shared" si="9"/>
-        <v>5.4853288736256998</v>
+        <v>5.2688019811156863</v>
       </c>
       <c r="M42" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N42" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6532392800000002</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="10"/>
-        <v>10.4197069836257</v>
+        <v>19.679293391115685</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" si="8"/>
@@ -14993,7 +15002,7 @@
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="5"/>
-        <v>241.12823167530942</v>
+        <v>194.18318791295482</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -15012,7 +15021,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="11"/>
-        <v>251.33910633365522</v>
+        <v>201.89944866488597</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="9"/>
@@ -15020,19 +15029,19 @@
       </c>
       <c r="H43" s="2">
         <f t="shared" si="9"/>
-        <v>5.5268030485733535</v>
+        <v>5.3077697945814624</v>
       </c>
       <c r="M43" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6926021200000001</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="10"/>
-        <v>10.461181158573353</v>
+        <v>19.757624044581462</v>
       </c>
       <c r="P43" s="4">
         <f t="shared" si="8"/>
@@ -15040,7 +15049,7 @@
       </c>
       <c r="Q43" s="5">
         <f t="shared" si="5"/>
-        <v>251.33910633365522</v>
+        <v>201.89944866488597</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -15059,7 +15068,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="11"/>
-        <v>261.41176668361436</v>
+        <v>209.05963669497226</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="9"/>
@@ -15067,19 +15076,19 @@
       </c>
       <c r="H44" s="2">
         <f t="shared" si="9"/>
-        <v>5.566096814268886</v>
+        <v>5.3426195543003736</v>
       </c>
       <c r="M44" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.7319649600000002</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="10"/>
-        <v>10.500474924268886</v>
+        <v>19.831836644300374</v>
       </c>
       <c r="P44" s="4">
         <f t="shared" si="8"/>
@@ -15087,7 +15096,7 @@
       </c>
       <c r="Q44" s="5">
         <f t="shared" si="5"/>
-        <v>261.41176668361436</v>
+        <v>209.05963669497226</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -15106,7 +15115,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="11"/>
-        <v>271.32011528320248</v>
+        <v>215.6204552445501</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="9"/>
@@ -15114,19 +15123,19 @@
       </c>
       <c r="H45" s="2">
         <f t="shared" si="9"/>
-        <v>5.6032993609753357</v>
+        <v>5.3735197104367742</v>
       </c>
       <c r="M45" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.7713278000000001</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="10"/>
-        <v>10.537677470975336</v>
+        <v>19.902099640436774</v>
       </c>
       <c r="P45" s="4">
         <f t="shared" si="8"/>
@@ -15134,7 +15143,7 @@
       </c>
       <c r="Q45" s="5">
         <f t="shared" si="5"/>
-        <v>271.32011528320248</v>
+        <v>215.6204552445501</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -15153,7 +15162,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="11"/>
-        <v>281.04411715853485</v>
+        <v>221.5528051346941</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="9"/>
@@ -15161,19 +15170,19 @@
       </c>
       <c r="H46" s="2">
         <f t="shared" si="9"/>
-        <v>5.6385116575746279</v>
+        <v>5.4006609589722228</v>
       </c>
       <c r="M46" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.8106906400000002</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="10"/>
-        <v>10.572889767574628</v>
+        <v>19.968603728972223</v>
       </c>
       <c r="P46" s="4">
         <f t="shared" si="8"/>
@@ -15181,7 +15190,7 @@
       </c>
       <c r="Q46" s="5">
         <f t="shared" si="5"/>
-        <v>281.04411715853485</v>
+        <v>221.5528051346941</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -15200,7 +15209,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="11"/>
-        <v>290.57964933274684</v>
+        <v>226.85596371675777</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="9"/>
@@ -15208,19 +15217,19 @@
       </c>
       <c r="H47" s="2">
         <f t="shared" si="9"/>
-        <v>5.6718777188586076</v>
+        <v>5.4243152950161591</v>
       </c>
       <c r="M47" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N47" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.8500534800000001</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="10"/>
-        <v>10.606255828858608</v>
+        <v>20.031620905016158</v>
       </c>
       <c r="P47" s="4">
         <f t="shared" si="8"/>
@@ -15228,7 +15237,7 @@
       </c>
       <c r="Q47" s="5">
         <f t="shared" si="5"/>
-        <v>290.57964933274684</v>
+        <v>226.85596371675777</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -15247,7 +15256,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="11"/>
-        <v>299.90377209992948</v>
+        <v>231.50554299580801</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="9"/>
@@ -15255,19 +15264,19 @@
       </c>
       <c r="H48" s="2">
         <f t="shared" si="9"/>
-        <v>5.703461663534914</v>
+        <v>5.4446038170660245</v>
       </c>
       <c r="M48" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N48" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.88941632</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="10"/>
-        <v>10.637839773534914</v>
+        <v>20.091272267066024</v>
       </c>
       <c r="P48" s="4">
         <f t="shared" si="8"/>
@@ -15275,7 +15284,7 @@
       </c>
       <c r="Q48" s="5">
         <f t="shared" si="5"/>
-        <v>299.90377209992948</v>
+        <v>231.50554299580801</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -15294,7 +15303,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="11"/>
-        <v>309.06478849057419</v>
+        <v>235.58443683254728</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="9"/>
@@ -15302,19 +15311,19 @@
       </c>
       <c r="H49" s="2">
         <f t="shared" si="9"/>
-        <v>5.733550926410282</v>
+        <v>5.462069392008722</v>
       </c>
       <c r="M49" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N49" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.9287791600000002</v>
       </c>
       <c r="O49" s="4">
         <f t="shared" si="10"/>
-        <v>10.667929036410282</v>
+        <v>20.148100682008721</v>
       </c>
       <c r="P49" s="4">
         <f t="shared" si="8"/>
@@ -15322,7 +15331,7 @@
       </c>
       <c r="Q49" s="5">
         <f t="shared" si="5"/>
-        <v>309.06478849057419</v>
+        <v>235.58443683254728</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -15341,7 +15350,7 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="11"/>
-        <v>318.05031444797163</v>
+        <v>239.08832716470738</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="9"/>
@@ -15349,19 +15358,19 @@
       </c>
       <c r="H50" s="2">
         <f t="shared" si="9"/>
-        <v>5.762209591798972</v>
+        <v>5.4768330533842491</v>
       </c>
       <c r="M50" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N50" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.9681420000000001</v>
       </c>
       <c r="O50" s="4">
         <f t="shared" si="10"/>
-        <v>10.696587701798972</v>
+        <v>20.202227183384249</v>
       </c>
       <c r="P50" s="4">
         <f t="shared" si="8"/>
@@ -15369,7 +15378,7 @@
       </c>
       <c r="Q50" s="5">
         <f t="shared" si="5"/>
-        <v>318.05031444797163</v>
+        <v>239.08832716470738</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
@@ -15388,7 +15397,7 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" si="11"/>
-        <v>326.93369183824643</v>
+        <v>242.13577713506442</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="9"/>
@@ -15396,19 +15405,19 @@
       </c>
       <c r="H51" s="2">
         <f t="shared" si="9"/>
-        <v>5.7897573730820975</v>
+        <v>5.4894986313615348</v>
       </c>
       <c r="M51" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N51" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.0075048400000002</v>
       </c>
       <c r="O51" s="4">
         <f t="shared" si="10"/>
-        <v>10.724135483082097</v>
+        <v>20.254255601361535</v>
       </c>
       <c r="P51" s="4">
         <f t="shared" si="8"/>
@@ -15416,7 +15425,7 @@
       </c>
       <c r="Q51" s="5">
         <f t="shared" si="5"/>
-        <v>326.93369183824643</v>
+        <v>242.13577713506442</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -15435,7 +15444,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="11"/>
-        <v>335.74252723708355</v>
+        <v>244.77759107689789</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="9"/>
@@ -15443,19 +15452,19 @@
       </c>
       <c r="H52" s="2">
         <f t="shared" si="9"/>
-        <v>5.8163445782296224</v>
+        <v>5.5003500067296009</v>
       </c>
       <c r="M52" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N52" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.0468676800000001</v>
       </c>
       <c r="O52" s="4">
         <f t="shared" si="10"/>
-        <v>10.750722688229622</v>
+        <v>20.3044698167296</v>
       </c>
       <c r="P52" s="4">
         <f t="shared" si="8"/>
@@ -15463,7 +15472,7 @@
       </c>
       <c r="Q52" s="5">
         <f t="shared" si="5"/>
-        <v>335.74252723708355</v>
+        <v>244.77759107689789</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
@@ -15482,7 +15491,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="11"/>
-        <v>344.46995322413744</v>
+        <v>247.01635051108897</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="9"/>
@@ -15490,19 +15499,19 @@
       </c>
       <c r="H53" s="2">
         <f t="shared" si="9"/>
-        <v>5.8420068681423745</v>
+        <v>5.5094545308382621</v>
       </c>
       <c r="M53" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N53" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.08623052</v>
       </c>
       <c r="O53" s="4">
         <f t="shared" si="10"/>
-        <v>10.776384978142374</v>
+        <v>20.352937180838261</v>
       </c>
       <c r="P53" s="4">
         <f t="shared" si="8"/>
@@ -15510,7 +15519,7 @@
       </c>
       <c r="Q53" s="5">
         <f t="shared" si="5"/>
-        <v>344.46995322413744</v>
+        <v>247.01635051108897</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -15529,7 +15538,7 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="11"/>
-        <v>353.21611930301344</v>
+        <v>248.9984158895264</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="9"/>
@@ -15537,19 +15546,19 @@
       </c>
       <c r="H54" s="2">
         <f t="shared" si="9"/>
-        <v>5.8670801055791797</v>
+        <v>5.5174465345550185</v>
       </c>
       <c r="M54" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N54" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.1255933600000003</v>
       </c>
       <c r="O54" s="4">
         <f t="shared" si="10"/>
-        <v>10.80145821557918</v>
+        <v>20.400292024555018</v>
       </c>
       <c r="P54" s="4">
         <f t="shared" si="8"/>
@@ -15557,7 +15566,7 @@
       </c>
       <c r="Q54" s="5">
         <f t="shared" si="5"/>
-        <v>353.21611930301344</v>
+        <v>248.9984158895264</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
@@ -15576,7 +15585,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="11"/>
-        <v>361.95536307781902</v>
+        <v>250.69675560159527</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="9"/>
@@ -15584,19 +15593,19 @@
       </c>
       <c r="H55" s="2">
         <f t="shared" si="9"/>
-        <v>5.8915208978080456</v>
+        <v>5.5242440637226906</v>
       </c>
       <c r="M55" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N55" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.1649562000000002</v>
       </c>
       <c r="O55" s="4">
         <f t="shared" si="10"/>
-        <v>10.825899007808045</v>
+        <v>20.446452393722691</v>
       </c>
       <c r="P55" s="4">
         <f t="shared" si="8"/>
@@ -15604,7 +15613,7 @@
       </c>
       <c r="Q55" s="5">
         <f t="shared" si="5"/>
-        <v>361.95536307781902</v>
+        <v>250.69675560159527</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
@@ -15623,7 +15632,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="11"/>
-        <v>370.75173395321906</v>
+        <v>252.2022378067644</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="9"/>
@@ -15631,19 +15640,19 @@
       </c>
       <c r="H56" s="2">
         <f t="shared" si="9"/>
-        <v>5.9155326578869944</v>
+        <v>5.5302312966348488</v>
       </c>
       <c r="M56" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N56" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.2043190400000001</v>
       </c>
       <c r="O56" s="4">
         <f t="shared" si="10"/>
-        <v>10.849910767886994</v>
+        <v>20.491802466634848</v>
       </c>
       <c r="P56" s="4">
         <f t="shared" si="8"/>
@@ -15651,7 +15660,7 @@
       </c>
       <c r="Q56" s="5">
         <f t="shared" si="5"/>
-        <v>370.75173395321906</v>
+        <v>252.2022378067644</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -15670,7 +15679,7 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="11"/>
-        <v>379.57310271854737</v>
+        <v>253.47861670614182</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="9"/>
@@ -15678,19 +15687,19 @@
       </c>
       <c r="H57" s="2">
         <f t="shared" si="9"/>
-        <v>5.9390472073194749</v>
+        <v>5.5352794672293708</v>
       </c>
       <c r="M57" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N57" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.24368188</v>
       </c>
       <c r="O57" s="4">
         <f t="shared" si="10"/>
-        <v>10.873425317319475</v>
+        <v>20.536213477229371</v>
       </c>
       <c r="P57" s="4">
         <f t="shared" si="8"/>
@@ -15698,7 +15707,7 @@
       </c>
       <c r="Q57" s="5">
         <f t="shared" si="5"/>
-        <v>379.57310271854737</v>
+        <v>253.47861670614182</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -15717,7 +15726,7 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="11"/>
-        <v>388.45845200613746</v>
+        <v>254.5808265580809</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="9"/>
@@ -15725,19 +15734,19 @@
       </c>
       <c r="H58" s="2">
         <f t="shared" si="9"/>
-        <v>5.9621862194455693</v>
+        <v>5.5396183751888479</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N58" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.2830447200000004</v>
       </c>
       <c r="O58" s="4">
         <f t="shared" si="10"/>
-        <v>10.896564329445569</v>
+        <v>20.579915225188849</v>
       </c>
       <c r="P58" s="4">
         <f t="shared" si="8"/>
@@ -15745,7 +15754,7 @@
       </c>
       <c r="Q58" s="5">
         <f t="shared" si="5"/>
-        <v>388.45845200613746</v>
+        <v>254.5808265580809</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -15764,7 +15773,7 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="11"/>
-        <v>397.4257409418438</v>
+        <v>255.53473046841842</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="9"/>
@@ -15772,19 +15781,19 @@
       </c>
       <c r="H59" s="2">
         <f t="shared" si="9"/>
-        <v>5.9850081014016014</v>
+        <v>5.5433583317891681</v>
       </c>
       <c r="M59" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N59" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.3224075600000003</v>
       </c>
       <c r="O59" s="4">
         <f t="shared" si="10"/>
-        <v>10.919386211401601</v>
+        <v>20.623018021789168</v>
       </c>
       <c r="P59" s="4">
         <f t="shared" si="8"/>
@@ -15792,7 +15801,7 @@
       </c>
       <c r="Q59" s="5">
         <f t="shared" si="5"/>
-        <v>397.4257409418438</v>
+        <v>255.53473046841842</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
@@ -15811,7 +15820,7 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="11"/>
-        <v>406.48787520326493</v>
+        <v>256.35859873700394</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="9"/>
@@ -15819,19 +15828,19 @@
       </c>
       <c r="H60" s="2">
         <f t="shared" si="9"/>
-        <v>6.0075541012447813</v>
+        <v>5.5465772406240674</v>
       </c>
       <c r="M60" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N60" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.3617704000000002</v>
       </c>
       <c r="O60" s="4">
         <f t="shared" si="10"/>
-        <v>10.941932211244781</v>
+        <v>20.665599770624066</v>
       </c>
       <c r="P60" s="4">
         <f t="shared" si="8"/>
@@ -15839,7 +15848,7 @@
       </c>
       <c r="Q60" s="5">
         <f t="shared" si="5"/>
-        <v>406.48787520326493</v>
+        <v>256.35859873700394</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -15858,7 +15867,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="11"/>
-        <v>415.6509850537127</v>
+        <v>257.06169288965742</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="9"/>
@@ -15866,19 +15875,19 @@
       </c>
       <c r="H61" s="2">
         <f t="shared" si="9"/>
-        <v>6.0298459298857834</v>
+        <v>5.5493161062421006</v>
       </c>
       <c r="M61" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N61" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.4011332400000001</v>
       </c>
       <c r="O61" s="4">
         <f t="shared" si="10"/>
-        <v>10.964224039885783</v>
+        <v>20.7077014762421</v>
       </c>
       <c r="P61" s="4">
         <f t="shared" si="8"/>
@@ -15886,7 +15895,7 @@
       </c>
       <c r="Q61" s="5">
         <f t="shared" si="5"/>
-        <v>415.6509850537127</v>
+        <v>257.06169288965742</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -15905,7 +15914,7 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="11"/>
-        <v>424.93720967157992</v>
+        <v>257.67114690981282</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="9"/>
@@ -15913,19 +15922,19 @@
       </c>
       <c r="H62" s="2">
         <f t="shared" si="9"/>
-        <v>6.0519414160602762</v>
+        <v>5.5516841475164505</v>
       </c>
       <c r="M62" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N62" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.4404960800000004</v>
       </c>
       <c r="O62" s="4">
         <f t="shared" si="10"/>
-        <v>10.986319526060276</v>
+        <v>20.749432357516451</v>
       </c>
       <c r="P62" s="4">
         <f t="shared" si="8"/>
@@ -15933,7 +15942,7 @@
       </c>
       <c r="Q62" s="5">
         <f t="shared" si="5"/>
-        <v>424.93720967157992</v>
+        <v>257.67114690981282</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -15952,7 +15961,7 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="11"/>
-        <v>434.30366803247779</v>
+        <v>258.13919840405612</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="9"/>
@@ -15960,19 +15969,19 @@
       </c>
       <c r="H63" s="2">
         <f t="shared" si="9"/>
-        <v>6.0737439853547022</v>
+        <v>5.553498968126231</v>
       </c>
       <c r="M63" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N63" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.4798589200000003</v>
       </c>
       <c r="O63" s="4">
         <f t="shared" si="10"/>
-        <v>11.008122095354702</v>
+        <v>20.79061001812623</v>
       </c>
       <c r="P63" s="4">
         <f t="shared" si="8"/>
@@ -15980,7 +15989,7 @@
       </c>
       <c r="Q63" s="5">
         <f t="shared" si="5"/>
-        <v>434.30366803247779</v>
+        <v>258.13919840405612</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -15999,7 +16008,7 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="11"/>
-        <v>443.74968103193328</v>
+        <v>258.46848170978802</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="9"/>
@@ -16007,19 +16016,19 @@
       </c>
       <c r="H64" s="2">
         <f t="shared" si="9"/>
-        <v>6.09526062198809</v>
+        <v>5.5547737588929973</v>
       </c>
       <c r="M64" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N64" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.5192217600000002</v>
       </c>
       <c r="O64" s="4">
         <f t="shared" si="10"/>
-        <v>11.02963873198809</v>
+        <v>20.831247648892997</v>
       </c>
       <c r="P64" s="4">
         <f t="shared" si="8"/>
@@ -16027,7 +16036,7 @@
       </c>
       <c r="Q64" s="5">
         <f t="shared" si="5"/>
-        <v>443.74968103193328</v>
+        <v>258.46848170978802</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
@@ -16046,7 +16055,7 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="11"/>
-        <v>453.31646638626745</v>
+        <v>258.70690852127393</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="9"/>
@@ -16054,19 +16063,19 @@
       </c>
       <c r="H65" s="2">
         <f t="shared" si="9"/>
-        <v>6.1165904828689284</v>
+        <v>5.5556957935948841</v>
       </c>
       <c r="M65" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N65" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.5585846000000001</v>
       </c>
       <c r="O65" s="4">
         <f t="shared" si="10"/>
-        <v>11.050968592868928</v>
+        <v>20.871532523594883</v>
       </c>
       <c r="P65" s="4">
         <f t="shared" si="8"/>
@@ -16074,7 +16083,7 @@
       </c>
       <c r="Q65" s="5">
         <f t="shared" si="5"/>
-        <v>453.31646638626745</v>
+        <v>258.70690852127393</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -16093,7 +16102,7 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="11"/>
-        <v>462.97550526897834</v>
+        <v>258.82517882737704</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="9"/>
@@ -16101,19 +16110,19 @@
       </c>
       <c r="H66" s="2">
         <f t="shared" si="9"/>
-        <v>6.1376741483000918</v>
+        <v>5.5561528485719691</v>
       </c>
       <c r="M66" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N66" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.59794744</v>
       </c>
       <c r="O66" s="4">
         <f t="shared" si="10"/>
-        <v>11.072052258300092</v>
+        <v>20.911352418571969</v>
       </c>
       <c r="P66" s="4">
         <f t="shared" si="8"/>
@@ -16121,7 +16130,7 @@
       </c>
       <c r="Q66" s="5">
         <f t="shared" si="5"/>
-        <v>462.97550526897834</v>
+        <v>258.82517882737704</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -16140,7 +16149,7 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" si="11"/>
-        <v>472.73928726752541</v>
+        <v>258.83898021170887</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="9"/>
@@ -16148,19 +16157,19 @@
       </c>
       <c r="H67" s="2">
         <f t="shared" si="9"/>
-        <v>6.1585440468217945</v>
+        <v>5.5562061703408965</v>
       </c>
       <c r="M67" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N67" s="4">
         <f t="shared" ref="N67:N72" si="13">$K$3*(A68-$A$2+1)</f>
-        <v>0</v>
+        <v>-2.6373102800000003</v>
       </c>
       <c r="O67" s="4">
         <f t="shared" si="10"/>
-        <v>11.092922156821794</v>
+        <v>20.950768580340895</v>
       </c>
       <c r="P67" s="4">
         <f t="shared" si="8"/>
@@ -16168,7 +16177,7 @@
       </c>
       <c r="Q67" s="5">
         <f t="shared" si="5"/>
-        <v>472.73928726752541</v>
+        <v>258.83898021170887</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
@@ -16187,7 +16196,7 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" si="11"/>
-        <v>482.5494134246901</v>
+        <v>258.69119828420247</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="9"/>
@@ -16195,19 +16204,19 @@
       </c>
       <c r="H68" s="2">
         <f t="shared" si="9"/>
-        <v>6.1790833267782483</v>
+        <v>5.555635065745788</v>
       </c>
       <c r="M68" s="4">
         <f t="shared" si="6"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N68" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-2.6766731200000002</v>
       </c>
       <c r="O68" s="4">
         <f t="shared" si="10"/>
-        <v>11.113461436778248</v>
+        <v>20.989560315745788</v>
       </c>
       <c r="P68" s="4">
         <f t="shared" si="8"/>
@@ -16215,7 +16224,7 @@
       </c>
       <c r="Q68" s="5">
         <f t="shared" ref="Q68:Q71" si="14">EXP(M68+N68+O68+P68)</f>
-        <v>482.5494134246901</v>
+        <v>258.69119828420247</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
@@ -16234,7 +16243,7 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" si="11"/>
-        <v>492.4188873098384</v>
+        <v>258.40053863439613</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="9"/>
@@ -16242,19 +16251,19 @@
       </c>
       <c r="H69" s="2">
         <f t="shared" si="9"/>
-        <v>6.1993297512307111</v>
+        <v>5.5545108564047112</v>
       </c>
       <c r="M69" s="4">
         <f t="shared" ref="M69:M72" si="15">$K$6</f>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N69" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-2.7160359600000001</v>
       </c>
       <c r="O69" s="4">
         <f t="shared" si="10"/>
-        <v>11.133707861230711</v>
+        <v>21.027798946404712</v>
       </c>
       <c r="P69" s="4">
         <f t="shared" ref="P69:P72" si="16">$K$5*H68</f>
@@ -16262,7 +16271,7 @@
       </c>
       <c r="Q69" s="5">
         <f t="shared" si="14"/>
-        <v>492.4188873098384</v>
+        <v>258.40053863439613</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
@@ -16281,7 +16290,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="11"/>
-        <v>502.36177569235241</v>
+        <v>257.98561224386577</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="9"/>
@@ -16289,19 +16298,19 @@
       </c>
       <c r="H70" s="2">
         <f t="shared" si="9"/>
-        <v>6.2193205288445954</v>
+        <v>5.5529038168699643</v>
       </c>
       <c r="M70" s="4">
         <f t="shared" si="15"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N70" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-2.7553988</v>
       </c>
       <c r="O70" s="4">
         <f t="shared" si="10"/>
-        <v>11.153698638844595</v>
+        <v>21.065554746869964</v>
       </c>
       <c r="P70" s="4">
         <f t="shared" si="16"/>
@@ -16309,7 +16318,7 @@
       </c>
       <c r="Q70" s="5">
         <f t="shared" si="14"/>
-        <v>502.36177569235241</v>
+        <v>257.98561224386577</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
@@ -16328,7 +16337,7 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="11"/>
-        <v>512.29340131477511</v>
+        <v>257.37013345850374</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="9"/>
@@ -16336,19 +16345,19 @@
       </c>
       <c r="H71" s="2">
         <f t="shared" si="9"/>
-        <v>6.2388975103522961</v>
+        <v>5.5505152568000913</v>
       </c>
       <c r="M71" s="4">
         <f t="shared" si="15"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N71" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-2.7947616400000004</v>
       </c>
       <c r="O71" s="4">
         <f t="shared" si="10"/>
-        <v>11.173275620352296</v>
+        <v>21.102529026800092</v>
       </c>
       <c r="P71" s="4">
         <f t="shared" si="16"/>
@@ -16356,7 +16365,7 @@
       </c>
       <c r="Q71" s="5">
         <f t="shared" si="14"/>
-        <v>512.29340131477511</v>
+        <v>257.37013345850374</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
@@ -16375,7 +16384,7 @@
       </c>
       <c r="F72" s="1">
         <f>Q72</f>
-        <v>522.27706305468371</v>
+        <v>2.9598580484750134E+37</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="9"/>
@@ -16383,19 +16392,19 @@
       </c>
       <c r="H72" s="2">
         <f t="shared" si="9"/>
-        <v>6.2581982192083414</v>
+        <v>86.280789751369426</v>
       </c>
       <c r="M72" s="4">
         <f t="shared" si="15"/>
-        <v>-4.9343781099999999</v>
+        <v>-12.757252129999999</v>
       </c>
       <c r="N72" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>77.899060360000007</v>
       </c>
       <c r="O72" s="4">
         <f t="shared" si="10"/>
-        <v>11.192576329208341</v>
+        <v>21.13898152136942</v>
       </c>
       <c r="P72" s="4">
         <f t="shared" si="16"/>
@@ -16403,7 +16412,7 @@
       </c>
       <c r="Q72" s="5">
         <f>EXP(M72+N72+O72+P72)</f>
-        <v>522.27706305468371</v>
+        <v>2.9598580484750134E+37</v>
       </c>
     </row>
   </sheetData>
